--- a/WSIG DCF Output.xlsx
+++ b/WSIG DCF Output.xlsx
@@ -457,9 +457,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="43"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -768,7 +768,7 @@
     <cellStyle builtinId="5" name="Percent" xfId="2"/>
     <cellStyle builtinId="4" name="Currency" xfId="3"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -780,193 +780,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2722,11 +2535,21 @@
       <c r="A15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="94" t="n"/>
-      <c r="C15" s="94" t="n"/>
-      <c r="D15" s="94" t="n"/>
-      <c r="E15" s="94" t="n"/>
-      <c r="F15" s="94" t="n"/>
+      <c r="B15" s="94" t="n">
+        <v>11257</v>
+      </c>
+      <c r="C15" s="94" t="n">
+        <v>11636</v>
+      </c>
+      <c r="D15" s="94" t="n">
+        <v>11634</v>
+      </c>
+      <c r="E15" s="94" t="n">
+        <v>11076</v>
+      </c>
+      <c r="F15" s="94" t="n">
+        <v>10505</v>
+      </c>
       <c r="G15" s="100" t="n"/>
       <c r="H15" s="101">
         <f>H4*Assumptions!B23</f>
@@ -2763,11 +2586,21 @@
       <c r="A16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="94" t="n"/>
-      <c r="C16" s="94" t="n"/>
-      <c r="D16" s="94" t="n"/>
-      <c r="E16" s="94" t="n"/>
-      <c r="F16" s="94" t="n"/>
+      <c r="B16" s="94" t="n">
+        <v>-11488</v>
+      </c>
+      <c r="C16" s="94" t="n">
+        <v>-12229</v>
+      </c>
+      <c r="D16" s="94" t="n">
+        <v>-12352</v>
+      </c>
+      <c r="E16" s="94" t="n">
+        <v>-13168</v>
+      </c>
+      <c r="F16" s="94" t="n">
+        <v>-13548</v>
+      </c>
       <c r="G16" s="100" t="n"/>
       <c r="H16" s="101">
         <f>Assumptions!B24*'Base Case'!H4</f>
@@ -2880,11 +2713,21 @@
       <c r="A19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="94" t="n"/>
-      <c r="C19" s="94" t="n"/>
-      <c r="D19" s="94" t="n"/>
-      <c r="E19" s="94" t="n"/>
-      <c r="F19" s="94" t="n"/>
+      <c r="B19" s="94" t="n">
+        <v>791</v>
+      </c>
+      <c r="C19" s="94" t="n">
+        <v>1764</v>
+      </c>
+      <c r="D19" s="94" t="n">
+        <v>2111</v>
+      </c>
+      <c r="E19" s="94" t="n">
+        <v>2349</v>
+      </c>
+      <c r="F19" s="94" t="n">
+        <v>2132</v>
+      </c>
       <c r="G19" s="100" t="n"/>
       <c r="H19" s="101" t="n"/>
       <c r="I19" s="101" t="n"/>
@@ -2906,11 +2749,21 @@
       <c r="A20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="94" t="n"/>
-      <c r="C20" s="94" t="n"/>
-      <c r="D20" s="94" t="n"/>
-      <c r="E20" s="94" t="n"/>
-      <c r="F20" s="94" t="n"/>
+      <c r="B20" s="94" t="n">
+        <v>18383</v>
+      </c>
+      <c r="C20" s="94" t="n">
+        <v>26287</v>
+      </c>
+      <c r="D20" s="94" t="n">
+        <v>11233</v>
+      </c>
+      <c r="E20" s="94" t="n">
+        <v>20481</v>
+      </c>
+      <c r="F20" s="94" t="n">
+        <v>46671</v>
+      </c>
       <c r="G20" s="100" t="n"/>
       <c r="H20" s="101" t="n"/>
       <c r="I20" s="101" t="n"/>
@@ -2932,11 +2785,21 @@
       <c r="A21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="94" t="n"/>
-      <c r="C21" s="94" t="n"/>
-      <c r="D21" s="94" t="n"/>
-      <c r="E21" s="94" t="n"/>
-      <c r="F21" s="94" t="n"/>
+      <c r="B21" s="94" t="n">
+        <v>57653</v>
+      </c>
+      <c r="C21" s="94" t="n">
+        <v>73286</v>
+      </c>
+      <c r="D21" s="94" t="n">
+        <v>68531</v>
+      </c>
+      <c r="E21" s="94" t="n">
+        <v>89378</v>
+      </c>
+      <c r="F21" s="94" t="n">
+        <v>106869</v>
+      </c>
       <c r="G21" s="100" t="n"/>
       <c r="H21" s="101" t="n"/>
       <c r="I21" s="101" t="n"/>
@@ -2958,11 +2821,21 @@
       <c r="A22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="94" t="n"/>
-      <c r="C22" s="94" t="n"/>
-      <c r="D22" s="94" t="n"/>
-      <c r="E22" s="94" t="n"/>
-      <c r="F22" s="94" t="n"/>
+      <c r="B22" s="94" t="n">
+        <v>176064</v>
+      </c>
+      <c r="C22" s="94" t="n">
+        <v>207000</v>
+      </c>
+      <c r="D22" s="94" t="n">
+        <v>231839</v>
+      </c>
+      <c r="E22" s="94" t="n">
+        <v>290345</v>
+      </c>
+      <c r="F22" s="94" t="n">
+        <v>321686</v>
+      </c>
       <c r="G22" s="100" t="n"/>
       <c r="H22" s="101" t="n"/>
       <c r="I22" s="101" t="n"/>
@@ -2984,11 +2857,21 @@
       <c r="A23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="94" t="n"/>
-      <c r="C23" s="94" t="n"/>
-      <c r="D23" s="94" t="n"/>
-      <c r="E23" s="94" t="n"/>
-      <c r="F23" s="94" t="n"/>
+      <c r="B23" s="94" t="n">
+        <v/>
+      </c>
+      <c r="C23" s="94" t="n">
+        <v/>
+      </c>
+      <c r="D23" s="94" t="n">
+        <v>6308</v>
+      </c>
+      <c r="E23" s="94" t="n">
+        <v>10999</v>
+      </c>
+      <c r="F23" s="94" t="n">
+        <v>11605</v>
+      </c>
       <c r="G23" s="100" t="n"/>
       <c r="H23" s="101" t="n"/>
       <c r="I23" s="101" t="n"/>
@@ -3010,11 +2893,21 @@
       <c r="A24" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="94" t="n"/>
-      <c r="C24" s="94" t="n"/>
-      <c r="D24" s="94" t="n"/>
-      <c r="E24" s="94" t="n"/>
-      <c r="F24" s="94" t="n"/>
+      <c r="B24" s="94" t="n">
+        <v>38542</v>
+      </c>
+      <c r="C24" s="94" t="n">
+        <v>43658</v>
+      </c>
+      <c r="D24" s="94" t="n">
+        <v>63448</v>
+      </c>
+      <c r="E24" s="94" t="n">
+        <v>80610</v>
+      </c>
+      <c r="F24" s="94" t="n">
+        <v>79006</v>
+      </c>
       <c r="G24" s="100" t="n"/>
       <c r="H24" s="101" t="n"/>
       <c r="I24" s="101" t="n"/>
@@ -3036,11 +2929,21 @@
       <c r="A25" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="94" t="n"/>
-      <c r="C25" s="94" t="n"/>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
-      <c r="F25" s="94" t="n"/>
+      <c r="B25" s="94" t="n">
+        <v/>
+      </c>
+      <c r="C25" s="94" t="n">
+        <v>16960</v>
+      </c>
+      <c r="D25" s="94" t="n">
+        <v>28987</v>
+      </c>
+      <c r="E25" s="94" t="n">
+        <v>53329</v>
+      </c>
+      <c r="F25" s="94" t="n">
+        <v>75427</v>
+      </c>
       <c r="G25" s="100" t="n"/>
       <c r="H25" s="101" t="n"/>
       <c r="I25" s="101" t="n"/>
@@ -3062,11 +2965,21 @@
       <c r="A26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="94" t="n"/>
-      <c r="C26" s="94" t="n"/>
-      <c r="D26" s="94" t="n"/>
-      <c r="E26" s="94" t="n"/>
-      <c r="F26" s="94" t="n"/>
+      <c r="B26" s="94" t="n">
+        <v>57854</v>
+      </c>
+      <c r="C26" s="94" t="n">
+        <v>83451</v>
+      </c>
+      <c r="D26" s="94" t="n">
+        <v>120292</v>
+      </c>
+      <c r="E26" s="94" t="n">
+        <v>170990</v>
+      </c>
+      <c r="F26" s="94" t="n">
+        <v>193437</v>
+      </c>
       <c r="G26" s="100" t="n"/>
       <c r="H26" s="101" t="n"/>
       <c r="I26" s="101" t="n"/>
@@ -3088,11 +3001,21 @@
       <c r="A27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="94" t="n"/>
-      <c r="C27" s="94" t="n"/>
-      <c r="D27" s="94" t="n"/>
-      <c r="E27" s="94" t="n"/>
-      <c r="F27" s="94" t="n"/>
+      <c r="B27" s="94" t="n">
+        <v>118210</v>
+      </c>
+      <c r="C27" s="94" t="n">
+        <v>123549</v>
+      </c>
+      <c r="D27" s="94" t="n">
+        <v>111547</v>
+      </c>
+      <c r="E27" s="94" t="n">
+        <v>119355</v>
+      </c>
+      <c r="F27" s="94" t="n">
+        <v>128249</v>
+      </c>
       <c r="G27" s="100" t="n"/>
       <c r="H27" s="101" t="n"/>
       <c r="I27" s="101" t="n"/>
@@ -3293,32 +3216,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule dxfId="1" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="3" priority="6" type="expression">
+    <cfRule dxfId="0" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule dxfId="0" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O11">
-    <cfRule dxfId="5" priority="4" type="expression">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O16">
-    <cfRule dxfId="6" priority="3" type="expression">
+    <cfRule dxfId="0" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O27">
-    <cfRule dxfId="7" priority="1" type="expression">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4765,47 +4688,47 @@
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule dxfId="8" priority="9" type="expression">
+    <cfRule dxfId="0" priority="9" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11 G15:G16 G19:G27">
-    <cfRule dxfId="9" priority="8" type="expression">
+    <cfRule dxfId="1" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="10" priority="7" type="expression">
+    <cfRule dxfId="1" priority="7" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule dxfId="11" priority="6" type="expression">
+    <cfRule dxfId="0" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="12" priority="5" type="expression">
+    <cfRule dxfId="0" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:O7">
-    <cfRule dxfId="13" priority="4" type="expression">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:O11">
-    <cfRule dxfId="14" priority="3" type="expression">
+    <cfRule dxfId="0" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:O16">
-    <cfRule dxfId="15" priority="2" type="expression">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N27">
-    <cfRule dxfId="16" priority="1" type="expression">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6251,47 +6174,47 @@
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule dxfId="17" priority="9" type="expression">
+    <cfRule dxfId="0" priority="9" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11 G15:G16 G19:G27">
-    <cfRule dxfId="18" priority="8" type="expression">
+    <cfRule dxfId="1" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="19" priority="7" type="expression">
+    <cfRule dxfId="1" priority="7" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule dxfId="20" priority="6" type="expression">
+    <cfRule dxfId="0" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="21" priority="5" type="expression">
+    <cfRule dxfId="0" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:O7">
-    <cfRule dxfId="22" priority="4" type="expression">
+    <cfRule dxfId="0" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:O11">
-    <cfRule dxfId="23" priority="3" type="expression">
+    <cfRule dxfId="0" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:O16">
-    <cfRule dxfId="24" priority="2" type="expression">
+    <cfRule dxfId="0" priority="2" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N27">
-    <cfRule dxfId="25" priority="1" type="expression">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WSIG DCF Output.xlsx
+++ b/WSIG DCF Output.xlsx
@@ -2174,19 +2174,19 @@
         <v>46</v>
       </c>
       <c r="B7" s="94" t="n">
-        <v>10040</v>
+        <v>13421</v>
       </c>
       <c r="C7" s="94" t="n">
-        <v>10830</v>
+        <v>15305</v>
       </c>
       <c r="D7" s="94" t="n">
-        <v>11993</v>
+        <v>18034</v>
       </c>
       <c r="E7" s="94" t="n">
-        <v>14329</v>
+        <v>22396</v>
       </c>
       <c r="F7" s="94" t="n">
-        <v>14194</v>
+        <v>24239</v>
       </c>
       <c r="G7" s="100" t="n"/>
       <c r="H7" s="101" t="n"/>
@@ -2536,19 +2536,19 @@
         <v>53</v>
       </c>
       <c r="B15" s="94" t="n">
-        <v>11257</v>
+        <v>-11488</v>
       </c>
       <c r="C15" s="94" t="n">
-        <v>11636</v>
+        <v>-12229</v>
       </c>
       <c r="D15" s="94" t="n">
-        <v>11634</v>
+        <v>-12352</v>
       </c>
       <c r="E15" s="94" t="n">
-        <v>11076</v>
+        <v>-13168</v>
       </c>
       <c r="F15" s="94" t="n">
-        <v>10505</v>
+        <v>-13548</v>
       </c>
       <c r="G15" s="100" t="n"/>
       <c r="H15" s="101">
@@ -2587,19 +2587,19 @@
         <v>54</v>
       </c>
       <c r="B16" s="94" t="n">
-        <v>-11488</v>
+        <v>11257</v>
       </c>
       <c r="C16" s="94" t="n">
-        <v>-12229</v>
+        <v>11636</v>
       </c>
       <c r="D16" s="94" t="n">
-        <v>-12352</v>
+        <v>11634</v>
       </c>
       <c r="E16" s="94" t="n">
-        <v>-13168</v>
+        <v>11076</v>
       </c>
       <c r="F16" s="94" t="n">
-        <v>-13548</v>
+        <v>10505</v>
       </c>
       <c r="G16" s="100" t="n"/>
       <c r="H16" s="101">

--- a/WSIG DCF Output.xlsx
+++ b/WSIG DCF Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t xml:space="preserve">WHITWORTH STUDENT INVESTMENT GROUP </t>
   </si>
@@ -32,6 +32,9 @@
     <t>Stock Symbol</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -47,7 +50,13 @@
     <t>Period Ending Date of Last 10Q</t>
   </si>
   <si>
+    <t>9/18/2016</t>
+  </si>
+  <si>
     <t>Period Ending Date of Last 10K</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
   </si>
   <si>
     <t>DCF Last Updated</t>
@@ -457,9 +466,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="43"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -768,7 +777,7 @@
     <cellStyle builtinId="5" name="Percent" xfId="2"/>
     <cellStyle builtinId="4" name="Currency" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -780,6 +789,193 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1242,47 +1438,53 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="n"/>
+      <c r="B4" s="78" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="78" t="n"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="78" t="n"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="78" t="n"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="79" t="n"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="79" t="n"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="79" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="79" t="n"/>
     </row>
@@ -1314,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1322,7 +1524,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:9" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="58">
         <f>'Base Case'!B3</f>
@@ -1349,15 +1551,15 @@
         <v/>
       </c>
       <c r="I3" s="58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="92">
         <f>IF(OR(ISERROR('Base Case'!C4/'Base Case'!B4),'Base Case'!B4&lt;0,'Base Case'!C4&lt;0),"NA",'Base Case'!C4/'Base Case'!B4-1)</f>
@@ -1376,7 +1578,7 @@
         <v/>
       </c>
       <c r="G4" s="92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="92">
         <f>IF(ISERROR(AVERAGE(B4:F4)),"NA",AVERAGE(B4:F4))</f>
@@ -1385,7 +1587,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="92">
         <f>IF(ISERROR('Base Case'!B8/'Base Case'!B4),"NA",'Base Case'!B8/'Base Case'!B4)</f>
@@ -1418,7 +1620,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="92">
         <f>IF(ISERROR('Base Case'!B10/'Base Case'!B9),"NA",'Base Case'!B10/'Base Case'!B9)</f>
@@ -1451,7 +1653,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="92">
         <f>IF(ISERROR('Base Case'!B16/'Base Case'!B4),"NA",'Base Case'!B16/'Base Case'!B4)</f>
@@ -1484,7 +1686,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="92">
         <f>IF(ISERROR('Base Case'!B15/'Base Case'!B4),"NA",'Base Case'!B15/'Base Case'!B4)</f>
@@ -1517,7 +1719,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="92">
         <f>IF(ISERROR('Base Case'!B29/'Base Case'!B4),"NA",'Base Case'!B29/'Base Case'!B4)</f>
@@ -1559,7 +1761,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="11" s="21" spans="1:9" thickBot="1">
       <c r="A11" s="25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="93" t="n"/>
       <c r="C11" s="93" t="n"/>
@@ -1571,11 +1773,11 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="94" t="n"/>
       <c r="D12" s="95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="83" t="n"/>
       <c r="G12" s="92" t="n"/>
@@ -1583,11 +1785,11 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="96" t="n"/>
       <c r="D13" s="95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="97" t="n"/>
       <c r="G13" s="92" t="n"/>
@@ -1595,11 +1797,11 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="96" t="n"/>
       <c r="D14" s="95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="85" t="n"/>
       <c r="G14" s="92" t="n"/>
@@ -1607,11 +1809,11 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="96" t="n"/>
       <c r="D15" s="95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="83" t="n"/>
       <c r="G15" s="92" t="n"/>
@@ -1619,11 +1821,11 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="96" t="n"/>
       <c r="D16" s="95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F16" s="94" t="n"/>
       <c r="G16" s="92" t="n"/>
@@ -1631,11 +1833,11 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="96" t="n"/>
       <c r="D17" s="95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" s="83" t="n"/>
       <c r="G17" s="92" t="n"/>
@@ -1643,7 +1845,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="19" s="21" spans="1:9" thickBot="1">
       <c r="A19" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="58">
         <f>'Base Case'!H3</f>
@@ -1668,7 +1870,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="98" t="n"/>
       <c r="C20" s="98" t="n"/>
@@ -1678,7 +1880,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="98" t="n"/>
       <c r="C21" s="98" t="n"/>
@@ -1688,7 +1890,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="98" t="n"/>
       <c r="C22" s="98" t="n"/>
@@ -1698,7 +1900,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="98" t="n"/>
       <c r="C23" s="98" t="n"/>
@@ -1708,7 +1910,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B24" s="98" t="n"/>
       <c r="C24" s="98" t="n"/>
@@ -1721,7 +1923,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="98" t="n"/>
       <c r="C25" s="98" t="n"/>
@@ -1731,13 +1933,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="21" spans="1:9" thickBot="1">
       <c r="A28" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" s="58">
         <f>B19</f>
@@ -1762,7 +1964,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" s="98" t="n"/>
       <c r="C29" s="98" t="n"/>
@@ -1772,7 +1974,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30" s="98" t="n"/>
       <c r="C30" s="98" t="n"/>
@@ -1782,7 +1984,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31" s="98" t="n"/>
       <c r="C31" s="98" t="n"/>
@@ -1792,7 +1994,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" s="98" t="n"/>
       <c r="C32" s="98" t="n"/>
@@ -1802,7 +2004,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B33" s="98" t="n"/>
       <c r="C33" s="98" t="n"/>
@@ -1815,7 +2017,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" s="98" t="n"/>
       <c r="C34" s="98" t="n"/>
@@ -1825,13 +2027,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="21" spans="1:9" thickBot="1">
       <c r="A37" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" s="58">
         <f>B19</f>
@@ -1856,7 +2058,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B38" s="98" t="n"/>
       <c r="C38" s="98" t="n"/>
@@ -1866,7 +2068,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B39" s="98" t="n"/>
       <c r="C39" s="98" t="n"/>
@@ -1876,7 +2078,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B40" s="98" t="n"/>
       <c r="C40" s="98" t="n"/>
@@ -1886,7 +2088,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41" s="98" t="n"/>
       <c r="C41" s="98" t="n"/>
@@ -1896,7 +2098,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B42" s="98" t="n"/>
       <c r="C42" s="98" t="n"/>
@@ -1909,7 +2111,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B43" s="98" t="n"/>
       <c r="C43" s="98" t="n"/>
@@ -1919,7 +2121,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B44" s="98" t="n"/>
     </row>
@@ -1954,12 +2156,12 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -1967,7 +2169,7 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
@@ -1976,7 +2178,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -2032,12 +2234,12 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="94" t="n">
         <v>156508</v>
@@ -2088,7 +2290,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="94" t="n">
         <v>87846</v>
@@ -2124,7 +2326,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="103">
         <f>B4-B5</f>
@@ -2171,7 +2373,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="94" t="n">
         <v>13421</v>
@@ -2207,7 +2409,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="103">
         <f>B6-B7</f>
@@ -2269,7 +2471,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="94" t="n">
         <v>55763</v>
@@ -2320,7 +2522,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" s="94" t="n">
         <v>14030</v>
@@ -2371,7 +2573,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" s="94" t="n">
         <v>522</v>
@@ -2407,7 +2609,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" s="103">
         <f>B9-B10+B11</f>
@@ -2471,7 +2673,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -2533,7 +2735,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="94" t="n">
         <v>-11488</v>
@@ -2584,7 +2786,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="94" t="n">
         <v>11257</v>
@@ -2652,7 +2854,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -2711,7 +2913,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="94" t="n">
         <v>791</v>
@@ -2747,22 +2949,22 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="94" t="n">
-        <v>18383</v>
+        <v>29129</v>
       </c>
       <c r="C20" s="94" t="n">
-        <v>26287</v>
+        <v>40546</v>
       </c>
       <c r="D20" s="94" t="n">
-        <v>11233</v>
+        <v>25077</v>
       </c>
       <c r="E20" s="94" t="n">
-        <v>20481</v>
+        <v>41601</v>
       </c>
       <c r="F20" s="94" t="n">
-        <v>46671</v>
+        <v>67155</v>
       </c>
       <c r="G20" s="100" t="n"/>
       <c r="H20" s="101" t="n"/>
@@ -2783,7 +2985,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="94" t="n">
         <v>57653</v>
@@ -2819,7 +3021,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="94" t="n">
         <v>176064</v>
@@ -2855,7 +3057,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="94" t="n">
         <v/>
@@ -2891,7 +3093,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="94" t="n">
         <v>38542</v>
@@ -2927,7 +3129,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="94" t="n">
         <v/>
@@ -2963,7 +3165,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="94" t="n">
         <v>57854</v>
@@ -2999,7 +3201,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="94" t="n">
         <v>118210</v>
@@ -3035,7 +3237,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="101">
         <f>B22-B26-B27</f>
@@ -3093,7 +3295,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="103">
         <f>B21-B24-B20+B23</f>
@@ -3152,7 +3354,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="106" t="n"/>
       <c r="C30" s="107">
@@ -3216,32 +3418,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="1" priority="8" type="expression">
+    <cfRule dxfId="2" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule dxfId="3" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule dxfId="4" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O11">
-    <cfRule dxfId="0" priority="4" type="expression">
+    <cfRule dxfId="5" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O16">
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule dxfId="6" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O27">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule dxfId="7" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3275,12 +3477,12 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -3288,7 +3490,7 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
@@ -3297,7 +3499,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -3353,12 +3555,12 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="109">
         <f>'Base Case'!B4</f>
@@ -3420,7 +3622,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="109">
         <f>'Base Case'!B5</f>
@@ -3467,7 +3669,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="103">
         <f>B4-B5</f>
@@ -3514,7 +3716,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="109">
         <f>'Base Case'!B7</f>
@@ -3561,7 +3763,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="103">
         <f>B6-B7</f>
@@ -3623,7 +3825,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="109">
         <f>'Base Case'!B9</f>
@@ -3685,7 +3887,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" s="109">
         <f>'Base Case'!B10</f>
@@ -3747,7 +3949,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" s="109">
         <f>'Base Case'!B11</f>
@@ -3794,7 +3996,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" s="103">
         <f>B9-B10-B11</f>
@@ -3858,7 +4060,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -3920,7 +4122,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="109">
         <f>'Base Case'!B15</f>
@@ -3982,7 +4184,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="109">
         <f>'Base Case'!B16</f>
@@ -4061,7 +4263,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -4120,7 +4322,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="109">
         <f>'Base Case'!B19</f>
@@ -4164,7 +4366,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="109">
         <f>'Base Case'!B20</f>
@@ -4208,7 +4410,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="109">
         <f>'Base Case'!B21</f>
@@ -4252,7 +4454,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="109">
         <f>'Base Case'!B22</f>
@@ -4296,7 +4498,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="109">
         <f>'Base Case'!B23</f>
@@ -4340,7 +4542,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="109">
         <f>'Base Case'!B24</f>
@@ -4384,7 +4586,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="109">
         <f>'Base Case'!B25</f>
@@ -4425,7 +4627,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="109">
         <f>'Base Case'!B26</f>
@@ -4469,7 +4671,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="109">
         <f>'Base Case'!B27</f>
@@ -4513,7 +4715,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="101">
         <f>B22-B26-B27</f>
@@ -4572,7 +4774,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="103">
         <f>B21-B24-B20+B23</f>
@@ -4631,7 +4833,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="107">
         <f>'Base Case'!B30</f>
@@ -4688,47 +4890,47 @@
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule dxfId="8" priority="9" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11 G15:G16 G19:G27">
-    <cfRule dxfId="1" priority="8" type="expression">
+    <cfRule dxfId="9" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule dxfId="10" priority="7" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule dxfId="11" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule dxfId="12" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:O7">
-    <cfRule dxfId="0" priority="4" type="expression">
+    <cfRule dxfId="13" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:O11">
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule dxfId="14" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:O16">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule dxfId="15" priority="2" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N27">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule dxfId="16" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4761,12 +4963,12 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -4774,7 +4976,7 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
@@ -4783,7 +4985,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -4839,12 +5041,12 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="109">
         <f>'Base Case'!B4</f>
@@ -4906,7 +5108,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="109">
         <f>'Base Case'!B5</f>
@@ -4953,7 +5155,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="103">
         <f>B4-B5</f>
@@ -5000,7 +5202,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="109">
         <f>'Base Case'!B7</f>
@@ -5047,7 +5249,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="103">
         <f>B6-B7</f>
@@ -5109,7 +5311,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="109">
         <f>'Base Case'!B9</f>
@@ -5171,7 +5373,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" s="109">
         <f>'Base Case'!B10</f>
@@ -5233,7 +5435,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" s="109">
         <f>'Base Case'!B11</f>
@@ -5280,7 +5482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" s="103">
         <f>B9-B10-B11</f>
@@ -5344,7 +5546,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -5406,7 +5608,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="109">
         <f>'Base Case'!B15</f>
@@ -5468,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="109">
         <f>'Base Case'!B16</f>
@@ -5547,7 +5749,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -5606,7 +5808,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="109">
         <f>'Base Case'!B19</f>
@@ -5650,7 +5852,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="109">
         <f>'Base Case'!B20</f>
@@ -5694,7 +5896,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="109">
         <f>'Base Case'!B21</f>
@@ -5738,7 +5940,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="109">
         <f>'Base Case'!B22</f>
@@ -5782,7 +5984,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="109">
         <f>'Base Case'!B23</f>
@@ -5826,7 +6028,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="109">
         <f>'Base Case'!B24</f>
@@ -5870,7 +6072,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="109">
         <f>'Base Case'!B25</f>
@@ -5911,7 +6113,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="109">
         <f>'Base Case'!B26</f>
@@ -5955,7 +6157,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="109">
         <f>'Base Case'!B27</f>
@@ -5999,7 +6201,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="101">
         <f>B22-B26-B27</f>
@@ -6058,7 +6260,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="103">
         <f>B21-B24-B20+B23</f>
@@ -6117,7 +6319,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="107">
         <f>'Base Case'!B30</f>
@@ -6174,47 +6376,47 @@
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule dxfId="17" priority="9" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11 G15:G16 G19:G27">
-    <cfRule dxfId="1" priority="8" type="expression">
+    <cfRule dxfId="18" priority="8" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule dxfId="19" priority="7" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule dxfId="20" priority="6" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule dxfId="21" priority="5" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:O7">
-    <cfRule dxfId="0" priority="4" type="expression">
+    <cfRule dxfId="22" priority="4" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:O11">
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule dxfId="23" priority="3" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:O16">
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule dxfId="24" priority="2" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N27">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule dxfId="25" priority="1" type="expression">
       <formula>$G$3="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,17 +6445,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <f>Assumptions!$F$12</f>
@@ -6262,7 +6464,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="28">
         <f>Assumptions!$F$17</f>
@@ -6271,7 +6473,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
         <f>Assumptions!$F$13</f>
@@ -6280,7 +6482,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6">
         <f>B4+(B6*(B5-B4))</f>
@@ -6289,12 +6491,12 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <f>Assumptions!$F$14</f>
@@ -6303,7 +6505,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6">
         <f>Assumptions!$F$15</f>
@@ -6312,7 +6514,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6">
         <f>MAX(B10:B11)</f>
@@ -6321,7 +6523,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7">
         <f>Assumptions!$G$6</f>
@@ -6330,7 +6532,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B16" s="109">
         <f>Assumptions!$B$12</f>
@@ -6339,7 +6541,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" s="112">
         <f>Assumptions!$B$13</f>
@@ -6348,7 +6550,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" s="109">
         <f>B16*B17</f>
@@ -6357,7 +6559,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="109">
         <f>IF(ISBLANK('Base Case'!G20),'Base Case'!F20,'Base Case'!G20)</f>
@@ -6366,7 +6568,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20" s="109">
         <f>IF(ISBLANK('Base Case'!G25),'Base Case'!F25,'Base Case'!G25)</f>
@@ -6375,7 +6577,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6">
         <f>IF(ISERROR(B7*(B18/(B20+B18))+B12*(B20/(B18+B20))*(1-B13)),0,B7*(B18/(B20+B18))+B12*(B20/(B18+B20))*(1-B13))</f>
@@ -6413,12 +6615,12 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:16" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" s="58">
         <f>'Base Case'!B3</f>
@@ -6465,19 +6667,19 @@
         <v/>
       </c>
       <c r="M3" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N3" s="26" t="n"/>
       <c r="O3" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="101">
         <f>'Base Case'!B$8</f>
@@ -6526,7 +6728,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" s="101">
         <f>-'Base Case'!B$10</f>
@@ -6575,7 +6777,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" s="101">
         <f>'Base Case'!B$16</f>
@@ -6624,7 +6826,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7" s="101">
         <f>'Base Case'!B$30</f>
@@ -6673,7 +6875,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="8" s="21" spans="1:16" thickBot="1">
       <c r="A8" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" s="113">
         <f>-'Base Case'!B$15</f>
@@ -6726,7 +6928,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" s="101">
         <f>SUM(B$4:B$8)</f>
@@ -6787,7 +6989,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B10" s="116" t="n"/>
       <c r="C10" s="116" t="n"/>
@@ -6831,7 +7033,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="12" s="21" spans="1:16" thickBot="1">
       <c r="A12" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B12" s="58">
         <f>B3</f>
@@ -6878,19 +7080,19 @@
         <v/>
       </c>
       <c r="M12" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="101">
         <f>'Base Case'!B$8</f>
@@ -6940,7 +7142,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="101">
         <f>-'Base Case'!B$10</f>
@@ -6990,7 +7192,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="101">
         <f>'Base Case'!B$16</f>
@@ -7040,7 +7242,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="101">
         <f>'Base Case'!B$30</f>
@@ -7090,7 +7292,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="17" s="21" spans="1:16" thickBot="1">
       <c r="A17" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B17" s="113">
         <f>-'Base Case'!B$15</f>
@@ -7143,7 +7345,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" s="101">
         <f>SUM(B$4:B$8)</f>
@@ -7204,7 +7406,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -7248,7 +7450,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="21" s="21" spans="1:16" thickBot="1">
       <c r="A21" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B21" s="58">
         <f>B3</f>
@@ -7295,19 +7497,19 @@
         <v/>
       </c>
       <c r="M21" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N21" s="26" t="n"/>
       <c r="O21" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" s="101">
         <f>'Base Case'!B$8</f>
@@ -7360,7 +7562,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23" s="101">
         <f>-'Base Case'!B$10</f>
@@ -7413,7 +7615,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" s="101">
         <f>'Base Case'!B$16</f>
@@ -7466,7 +7668,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25" s="101">
         <f>'Base Case'!B$30</f>
@@ -7519,7 +7721,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="26" s="21" spans="1:16" thickBot="1">
       <c r="A26" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="113">
         <f>-'Base Case'!B$15</f>
@@ -7572,7 +7774,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B27" s="101">
         <f>SUM(B$4:B$8)</f>
@@ -7634,7 +7836,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B28" s="22" t="n"/>
       <c r="C28" s="22" t="n"/>
@@ -7707,29 +7909,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="21" spans="1:9" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="26" t="n"/>
       <c r="D3" s="58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="22" t="n"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" s="119">
         <f>Assumptions!$F$16</f>
@@ -7749,7 +7951,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" s="119">
         <f>'Cash Flow Calculations'!$P$10</f>
@@ -7778,7 +7980,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B7" s="119">
         <f>'WACC Calculations'!$B$20</f>
@@ -7798,7 +8000,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="119">
         <f>'WACC Calculations'!$B$19</f>
@@ -7818,7 +8020,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="119">
         <f>B5-B7+B8</f>
@@ -7846,7 +8048,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="68" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B11" s="121">
         <f>B9/B4</f>
@@ -7865,7 +8067,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="76" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B12" s="74">
         <f>B11/Assumptions!$B$13-1</f>
@@ -7885,7 +8087,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B13" s="90" t="n"/>
       <c r="C13" s="72" t="n"/>
@@ -7905,7 +8107,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15" s="122">
         <f>(B13*B11)+(D13*D11)+(F13*F11)</f>
@@ -7914,7 +8116,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6">
         <f>B15/Assumptions!$B$13-1</f>

--- a/WSIG DCF Output.xlsx
+++ b/WSIG DCF Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t xml:space="preserve">WHITWORTH STUDENT INVESTMENT GROUP </t>
   </si>
@@ -32,6 +32,9 @@
     <t>Stock Symbol</t>
   </si>
   <si>
+    <t>CRM</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -47,7 +50,13 @@
     <t>Period Ending Date of Last 10Q</t>
   </si>
   <si>
+    <t>9/18/2016</t>
+  </si>
+  <si>
     <t>Period Ending Date of Last 10K</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
   </si>
   <si>
     <t>DCF Last Updated</t>
@@ -417,7 +426,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -428,28 +437,28 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -461,7 +470,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
@@ -683,84 +692,6 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="2" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="2" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyProtection="1" borderId="1" fillId="2" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -933,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,14 +1148,14 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="28.42578125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="21" width="22.5703125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="28.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="21" width="22.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1242,54 +1173,59 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="n"/>
+      <c r="B4" s="78" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="78" t="n"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="78" t="n"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="78" t="n"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="79" t="n"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="79" t="n"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="79" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="79" t="n"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1302,27 +1238,27 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="44"/>
-    <col customWidth="1" max="9" min="2" style="21" width="13.7109375"/>
+    <col customWidth="1" max="9" min="2" style="21" width="13.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:9" thickBot="1">
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:9" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="58">
         <f>'Base Case'!B3</f>
@@ -1349,301 +1285,301 @@
         <v/>
       </c>
       <c r="I3" s="58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="92">
+        <v>16</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
         <f>IF(OR(ISERROR('Base Case'!C4/'Base Case'!B4),'Base Case'!B4&lt;0,'Base Case'!C4&lt;0),"NA",'Base Case'!C4/'Base Case'!B4-1)</f>
         <v/>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="3">
         <f>IF(OR(ISERROR('Base Case'!D4/'Base Case'!C4),'Base Case'!C4&lt;0,'Base Case'!D4&lt;0),"NA",'Base Case'!D4/'Base Case'!C4-1)</f>
         <v/>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="3">
         <f>IF(OR(ISERROR('Base Case'!E4/'Base Case'!D4),'Base Case'!D4&lt;0,'Base Case'!E4&lt;0),"NA",'Base Case'!E4/'Base Case'!D4-1)</f>
         <v/>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="3">
         <f>IF(OR(ISERROR('Base Case'!F4/'Base Case'!E4),'Base Case'!E4&lt;0,'Base Case'!F4&lt;0),"NA",'Base Case'!F4/'Base Case'!E4-1)</f>
         <v/>
       </c>
-      <c r="G4" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="92">
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3">
         <f>IF(ISERROR(AVERAGE(B4:F4)),"NA",AVERAGE(B4:F4))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="92">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
         <f>IF(ISERROR('Base Case'!B8/'Base Case'!B4),"NA",'Base Case'!B8/'Base Case'!B4)</f>
         <v/>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="3">
         <f>IF(ISERROR('Base Case'!C8/'Base Case'!C4),"NA",'Base Case'!C8/'Base Case'!C4)</f>
         <v/>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="3">
         <f>IF(ISERROR('Base Case'!D8/'Base Case'!D4),"NA",'Base Case'!D8/'Base Case'!D4)</f>
         <v/>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="3">
         <f>IF(ISERROR('Base Case'!E8/'Base Case'!E4),"NA",'Base Case'!E8/'Base Case'!E4)</f>
         <v/>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="3">
         <f>IF(ISERROR('Base Case'!F8/'Base Case'!F4),"NA",'Base Case'!F8/'Base Case'!F4)</f>
         <v/>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="3">
         <f>IF(ISERROR('Base Case'!P8/'Base Case'!P4),"NA",'Base Case'!P8/'Base Case'!P4)</f>
         <v/>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="3">
         <f>IF(ISERROR(AVERAGE(B5:F5)),"NA",AVERAGE(B5:F5))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="92">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
         <f>IF(ISERROR('Base Case'!B10/'Base Case'!B9),"NA",'Base Case'!B10/'Base Case'!B9)</f>
         <v/>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="3">
         <f>IF(ISERROR('Base Case'!C10/'Base Case'!C9),"NA",'Base Case'!C10/'Base Case'!C9)</f>
         <v/>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="3">
         <f>IF(ISERROR('Base Case'!D10/'Base Case'!D9),"NA",'Base Case'!D10/'Base Case'!D9)</f>
         <v/>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="3">
         <f>IF(ISERROR('Base Case'!E10/'Base Case'!E9),"NA",'Base Case'!E10/'Base Case'!E9)</f>
         <v/>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="3">
         <f>IF(ISERROR('Base Case'!F10/'Base Case'!F9),"NA",'Base Case'!F10/'Base Case'!F9)</f>
         <v/>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="3">
         <f>IF(ISERROR('Base Case'!P10/'Base Case'!P9),"NA",'Base Case'!P10/'Base Case'!P9)</f>
         <v/>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="3">
         <f>IF(ISERROR(AVERAGE(B6:F6)),"NA",AVERAGE(B6:F6))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="92">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
         <f>IF(ISERROR('Base Case'!B16/'Base Case'!B4),"NA",'Base Case'!B16/'Base Case'!B4)</f>
         <v/>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="3">
         <f>IF(ISERROR('Base Case'!C16/'Base Case'!C4),"NA",'Base Case'!C16/'Base Case'!C4)</f>
         <v/>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="3">
         <f>IF(ISERROR('Base Case'!D16/'Base Case'!D4),"NA",'Base Case'!D16/'Base Case'!D4)</f>
         <v/>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="3">
         <f>IF(ISERROR('Base Case'!E16/'Base Case'!E4),"NA",'Base Case'!E16/'Base Case'!E4)</f>
         <v/>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="3">
         <f>IF(ISERROR('Base Case'!F16/'Base Case'!F4),"NA",'Base Case'!F16/'Base Case'!F4)</f>
         <v/>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="3">
         <f>IF(ISERROR('Base Case'!P16/'Base Case'!P4),"NA",'Base Case'!P16/'Base Case'!P4)</f>
         <v/>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="3">
         <f>IF(ISERROR(AVERAGE(B7:F7)),"NA",AVERAGE(B7:F7))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="92">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
         <f>IF(ISERROR('Base Case'!B15/'Base Case'!B4),"NA",'Base Case'!B15/'Base Case'!B4)</f>
         <v/>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="3">
         <f>IF(ISERROR('Base Case'!C15/'Base Case'!C4),"NA",'Base Case'!C15/'Base Case'!C4)</f>
         <v/>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="3">
         <f>IF(ISERROR('Base Case'!D15/'Base Case'!D4),"NA",'Base Case'!D15/'Base Case'!D4)</f>
         <v/>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="3">
         <f>IF(ISERROR('Base Case'!E15/'Base Case'!E4),"NA",'Base Case'!E15/'Base Case'!E4)</f>
         <v/>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="3">
         <f>IF(ISERROR('Base Case'!F15/'Base Case'!F4),"NA",'Base Case'!F15/'Base Case'!F4)</f>
         <v/>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="3">
         <f>IF(ISERROR('Base Case'!P15/'Base Case'!P4),"NA",'Base Case'!P15/'Base Case'!P4)</f>
         <v/>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="3">
         <f>IF(ISERROR(AVERAGE(B8:F8)),"NA",AVERAGE(B8:F8))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="92">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
         <f>IF(ISERROR('Base Case'!B29/'Base Case'!B4),"NA",'Base Case'!B29/'Base Case'!B4)</f>
         <v/>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="3">
         <f>IF(ISERROR('Base Case'!C29/'Base Case'!C4),"NA",'Base Case'!C29/'Base Case'!C4)</f>
         <v/>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="3">
         <f>IF(ISERROR('Base Case'!D29/'Base Case'!D4),"NA",'Base Case'!D29/'Base Case'!D4)</f>
         <v/>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="3">
         <f>IF(ISERROR('Base Case'!E29/'Base Case'!E4),"NA",'Base Case'!E29/'Base Case'!E4)</f>
         <v/>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="3">
         <f>IF(ISERROR('Base Case'!F29/'Base Case'!F4),"NA",'Base Case'!F29/'Base Case'!F4)</f>
         <v/>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="3">
         <f>IF(ISERROR('Base Case'!P29/'Base Case'!P4),"NA",'Base Case'!P29/'Base Case'!P4)</f>
         <v/>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="3">
         <f>IF(ISERROR(AVERAGE(B9:F9)),"NA",AVERAGE(B9:F9))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="92" t="n"/>
-      <c r="C10" s="92" t="n"/>
-      <c r="D10" s="92" t="n"/>
-      <c r="E10" s="92" t="n"/>
-      <c r="F10" s="92" t="n"/>
-      <c r="G10" s="92" t="n"/>
-      <c r="I10" s="92" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="21" spans="1:9" thickBot="1">
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="21" spans="1:9" thickBot="1">
       <c r="A11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="93" t="n"/>
-      <c r="C11" s="93" t="n"/>
-      <c r="D11" s="93" t="n"/>
-      <c r="E11" s="93" t="n"/>
-      <c r="F11" s="93" t="n"/>
-      <c r="G11" s="92" t="n"/>
-      <c r="I11" s="92" t="n"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="30" t="n"/>
+      <c r="D11" s="30" t="n"/>
+      <c r="E11" s="30" t="n"/>
+      <c r="F11" s="30" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="94" t="n"/>
-      <c r="D12" s="95" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="87" t="n"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="83" t="n"/>
-      <c r="G12" s="92" t="n"/>
-      <c r="I12" s="92" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="96" t="n"/>
-      <c r="D13" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="97" t="n"/>
-      <c r="G13" s="92" t="n"/>
-      <c r="I13" s="92" t="n"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="82" t="n"/>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="84" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="96" t="n"/>
-      <c r="D14" s="95" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="82" t="n"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="85" t="n"/>
-      <c r="G14" s="92" t="n"/>
-      <c r="I14" s="92" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="96" t="n"/>
-      <c r="D15" s="95" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="82" t="n"/>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="83" t="n"/>
-      <c r="G15" s="92" t="n"/>
-      <c r="I15" s="92" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="96" t="n"/>
-      <c r="D16" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="94" t="n"/>
-      <c r="G16" s="92" t="n"/>
-      <c r="I16" s="92" t="n"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="82" t="n"/>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="87" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="96" t="n"/>
-      <c r="D17" s="95" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="82" t="n"/>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="83" t="n"/>
-      <c r="G17" s="92" t="n"/>
-      <c r="I17" s="92" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="21" spans="1:9" thickBot="1">
+      <c r="G17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="21" spans="1:9" thickBot="1">
       <c r="A19" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="58">
         <f>'Base Case'!H3</f>
@@ -1668,76 +1604,76 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="98" t="n"/>
-      <c r="C20" s="98" t="n"/>
-      <c r="D20" s="98" t="n"/>
-      <c r="E20" s="98" t="n"/>
-      <c r="F20" s="98" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="86" t="n"/>
+      <c r="C20" s="86" t="n"/>
+      <c r="D20" s="86" t="n"/>
+      <c r="E20" s="86" t="n"/>
+      <c r="F20" s="86" t="n"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="98" t="n"/>
-      <c r="C21" s="98" t="n"/>
-      <c r="D21" s="98" t="n"/>
-      <c r="E21" s="98" t="n"/>
-      <c r="F21" s="98" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="86" t="n"/>
+      <c r="C21" s="86" t="n"/>
+      <c r="D21" s="86" t="n"/>
+      <c r="E21" s="86" t="n"/>
+      <c r="F21" s="86" t="n"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="98" t="n"/>
-      <c r="C22" s="98" t="n"/>
-      <c r="D22" s="98" t="n"/>
-      <c r="E22" s="98" t="n"/>
-      <c r="F22" s="98" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="86" t="n"/>
+      <c r="C22" s="86" t="n"/>
+      <c r="D22" s="86" t="n"/>
+      <c r="E22" s="86" t="n"/>
+      <c r="F22" s="86" t="n"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="98" t="n"/>
-      <c r="C23" s="98" t="n"/>
-      <c r="D23" s="98" t="n"/>
-      <c r="E23" s="98" t="n"/>
-      <c r="F23" s="98" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="86" t="n"/>
+      <c r="C23" s="86" t="n"/>
+      <c r="D23" s="86" t="n"/>
+      <c r="E23" s="86" t="n"/>
+      <c r="F23" s="86" t="n"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="98" t="n"/>
-      <c r="C24" s="98" t="n"/>
-      <c r="D24" s="98" t="n"/>
-      <c r="E24" s="98" t="n"/>
-      <c r="F24" s="99">
+        <v>21</v>
+      </c>
+      <c r="B24" s="86" t="n"/>
+      <c r="C24" s="86" t="n"/>
+      <c r="D24" s="86" t="n"/>
+      <c r="E24" s="86" t="n"/>
+      <c r="F24" s="5">
         <f>F23</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="98" t="n"/>
-      <c r="C25" s="98" t="n"/>
-      <c r="D25" s="98" t="n"/>
-      <c r="E25" s="98" t="n"/>
-      <c r="F25" s="98" t="n"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="86" t="n"/>
+      <c r="C25" s="86" t="n"/>
+      <c r="D25" s="86" t="n"/>
+      <c r="E25" s="86" t="n"/>
+      <c r="F25" s="86" t="n"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="28" s="21" spans="1:9" thickBot="1">
+        <v>38</v>
+      </c>
+      <c r="B26" s="86" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="21" spans="1:9" thickBot="1">
       <c r="A28" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" s="58">
         <f>B19</f>
@@ -1762,76 +1698,76 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="98" t="n"/>
-      <c r="C29" s="98" t="n"/>
-      <c r="D29" s="98" t="n"/>
-      <c r="E29" s="98" t="n"/>
-      <c r="F29" s="98" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="86" t="n"/>
+      <c r="C29" s="86" t="n"/>
+      <c r="D29" s="86" t="n"/>
+      <c r="E29" s="86" t="n"/>
+      <c r="F29" s="86" t="n"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="98" t="n"/>
-      <c r="C30" s="98" t="n"/>
-      <c r="D30" s="98" t="n"/>
-      <c r="E30" s="98" t="n"/>
-      <c r="F30" s="98" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="B30" s="86" t="n"/>
+      <c r="C30" s="86" t="n"/>
+      <c r="D30" s="86" t="n"/>
+      <c r="E30" s="86" t="n"/>
+      <c r="F30" s="86" t="n"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="98" t="n"/>
-      <c r="C31" s="98" t="n"/>
-      <c r="D31" s="98" t="n"/>
-      <c r="E31" s="98" t="n"/>
-      <c r="F31" s="98" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="86" t="n"/>
+      <c r="C31" s="86" t="n"/>
+      <c r="D31" s="86" t="n"/>
+      <c r="E31" s="86" t="n"/>
+      <c r="F31" s="86" t="n"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="98" t="n"/>
-      <c r="C32" s="98" t="n"/>
-      <c r="D32" s="98" t="n"/>
-      <c r="E32" s="98" t="n"/>
-      <c r="F32" s="98" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="86" t="n"/>
+      <c r="C32" s="86" t="n"/>
+      <c r="D32" s="86" t="n"/>
+      <c r="E32" s="86" t="n"/>
+      <c r="F32" s="86" t="n"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="98" t="n"/>
-      <c r="C33" s="98" t="n"/>
-      <c r="D33" s="98" t="n"/>
-      <c r="E33" s="98" t="n"/>
-      <c r="F33" s="99">
+        <v>21</v>
+      </c>
+      <c r="B33" s="86" t="n"/>
+      <c r="C33" s="86" t="n"/>
+      <c r="D33" s="86" t="n"/>
+      <c r="E33" s="86" t="n"/>
+      <c r="F33" s="5">
         <f>F32</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="98" t="n"/>
-      <c r="C34" s="98" t="n"/>
-      <c r="D34" s="98" t="n"/>
-      <c r="E34" s="98" t="n"/>
-      <c r="F34" s="98" t="n"/>
+        <v>23</v>
+      </c>
+      <c r="B34" s="86" t="n"/>
+      <c r="C34" s="86" t="n"/>
+      <c r="D34" s="86" t="n"/>
+      <c r="E34" s="86" t="n"/>
+      <c r="F34" s="86" t="n"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="37" s="21" spans="1:9" thickBot="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="86" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="21" spans="1:9" thickBot="1">
       <c r="A37" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" s="58">
         <f>B19</f>
@@ -1856,72 +1792,72 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="98" t="n"/>
-      <c r="C38" s="98" t="n"/>
-      <c r="D38" s="98" t="n"/>
-      <c r="E38" s="98" t="n"/>
-      <c r="F38" s="98" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="86" t="n"/>
+      <c r="C38" s="86" t="n"/>
+      <c r="D38" s="86" t="n"/>
+      <c r="E38" s="86" t="n"/>
+      <c r="F38" s="86" t="n"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="98" t="n"/>
-      <c r="C39" s="98" t="n"/>
-      <c r="D39" s="98" t="n"/>
-      <c r="E39" s="98" t="n"/>
-      <c r="F39" s="98" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="86" t="n"/>
+      <c r="C39" s="86" t="n"/>
+      <c r="D39" s="86" t="n"/>
+      <c r="E39" s="86" t="n"/>
+      <c r="F39" s="86" t="n"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="98" t="n"/>
-      <c r="C40" s="98" t="n"/>
-      <c r="D40" s="98" t="n"/>
-      <c r="E40" s="98" t="n"/>
-      <c r="F40" s="98" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="86" t="n"/>
+      <c r="C40" s="86" t="n"/>
+      <c r="D40" s="86" t="n"/>
+      <c r="E40" s="86" t="n"/>
+      <c r="F40" s="86" t="n"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="98" t="n"/>
-      <c r="C41" s="98" t="n"/>
-      <c r="D41" s="98" t="n"/>
-      <c r="E41" s="98" t="n"/>
-      <c r="F41" s="98" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="86" t="n"/>
+      <c r="C41" s="86" t="n"/>
+      <c r="D41" s="86" t="n"/>
+      <c r="E41" s="86" t="n"/>
+      <c r="F41" s="86" t="n"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="98" t="n"/>
-      <c r="C42" s="98" t="n"/>
-      <c r="D42" s="98" t="n"/>
-      <c r="E42" s="98" t="n"/>
-      <c r="F42" s="99">
+        <v>21</v>
+      </c>
+      <c r="B42" s="86" t="n"/>
+      <c r="C42" s="86" t="n"/>
+      <c r="D42" s="86" t="n"/>
+      <c r="E42" s="86" t="n"/>
+      <c r="F42" s="5">
         <f>F41</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="98" t="n"/>
-      <c r="C43" s="98" t="n"/>
-      <c r="D43" s="98" t="n"/>
-      <c r="E43" s="98" t="n"/>
-      <c r="F43" s="98" t="n"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="86" t="n"/>
+      <c r="C43" s="86" t="n"/>
+      <c r="D43" s="86" t="n"/>
+      <c r="E43" s="86" t="n"/>
+      <c r="F43" s="86" t="n"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="98" t="n"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="86" t="n"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
@@ -1938,28 +1874,28 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.28515625"/>
-    <col customWidth="1" max="6" min="2" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.140625"/>
-    <col customWidth="1" max="13" min="8" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.140625"/>
-    <col customWidth="1" max="16" min="15" style="21" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.33203125"/>
+    <col customWidth="1" max="6" min="2" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.1640625"/>
+    <col customWidth="1" max="13" min="8" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.1640625"/>
+    <col customWidth="1" max="16" min="15" style="21" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -1967,16 +1903,16 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
       <c r="K2" s="45" t="n"/>
       <c r="L2" s="45" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -2032,446 +1968,446 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="94" t="n">
-        <v>156508</v>
-      </c>
-      <c r="C4" s="94" t="n">
-        <v>170910</v>
-      </c>
-      <c r="D4" s="94" t="n">
-        <v>182795</v>
-      </c>
-      <c r="E4" s="94" t="n">
-        <v>233715</v>
-      </c>
-      <c r="F4" s="94" t="n">
-        <v>215639</v>
-      </c>
-      <c r="G4" s="100" t="n"/>
-      <c r="H4" s="101">
+        <v>46</v>
+      </c>
+      <c r="B4" s="87" t="n">
+        <v>2267</v>
+      </c>
+      <c r="C4" s="87" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D4" s="87" t="n">
+        <v>4071</v>
+      </c>
+      <c r="E4" s="87" t="n">
+        <v>5374</v>
+      </c>
+      <c r="F4" s="87" t="n">
+        <v>6667</v>
+      </c>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="53">
         <f>F4*(1+Assumptions!B20)</f>
         <v/>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="53">
         <f>H4*(1+Assumptions!C20)</f>
         <v/>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="53">
         <f>I4*(1+Assumptions!D20)</f>
         <v/>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="53">
         <f>J4*(1+Assumptions!E20)</f>
         <v/>
       </c>
-      <c r="L4" s="102">
+      <c r="L4" s="54">
         <f>K4*(1+Assumptions!F20)</f>
         <v/>
       </c>
-      <c r="M4" s="101" t="n"/>
-      <c r="N4" s="101">
+      <c r="M4" s="53" t="n"/>
+      <c r="N4" s="53">
         <f>G4</f>
         <v/>
       </c>
-      <c r="O4" s="94" t="n"/>
-      <c r="P4" s="101">
+      <c r="O4" s="87" t="n"/>
+      <c r="P4" s="53">
         <f>IF($G$3="NA",F4,F4+N4-O4)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="94" t="n">
-        <v>87846</v>
-      </c>
-      <c r="C5" s="94" t="n">
-        <v>106606</v>
-      </c>
-      <c r="D5" s="94" t="n">
-        <v>112258</v>
-      </c>
-      <c r="E5" s="94" t="n">
-        <v>140089</v>
-      </c>
-      <c r="F5" s="94" t="n">
-        <v>131376</v>
-      </c>
-      <c r="G5" s="100" t="n"/>
-      <c r="H5" s="101" t="n"/>
-      <c r="I5" s="101" t="n"/>
-      <c r="J5" s="101" t="n"/>
-      <c r="K5" s="101" t="n"/>
-      <c r="L5" s="102" t="n"/>
-      <c r="M5" s="101" t="n"/>
-      <c r="N5" s="101">
+        <v>47</v>
+      </c>
+      <c r="B5" s="87" t="n">
+        <v>489</v>
+      </c>
+      <c r="C5" s="87" t="n">
+        <v>684</v>
+      </c>
+      <c r="D5" s="87" t="n">
+        <v>968</v>
+      </c>
+      <c r="E5" s="87" t="n">
+        <v>1289</v>
+      </c>
+      <c r="F5" s="87" t="n">
+        <v>1655</v>
+      </c>
+      <c r="G5" s="88" t="n"/>
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="53" t="n"/>
+      <c r="J5" s="53" t="n"/>
+      <c r="K5" s="53" t="n"/>
+      <c r="L5" s="54" t="n"/>
+      <c r="M5" s="53" t="n"/>
+      <c r="N5" s="53">
         <f>G5</f>
         <v/>
       </c>
-      <c r="O5" s="94" t="n"/>
-      <c r="P5" s="101">
+      <c r="O5" s="87" t="n"/>
+      <c r="P5" s="53">
         <f>IF($G$3="NA",F5,F5+N5-O5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="103">
+        <v>48</v>
+      </c>
+      <c r="B6" s="55">
         <f>B4-B5</f>
         <v/>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="55">
         <f>C4-C5</f>
         <v/>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="55">
         <f>D4-D5</f>
         <v/>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="55">
         <f>E4-E5</f>
         <v/>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="55">
         <f>F4-F5</f>
         <v/>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="56">
         <f>G4-G5</f>
         <v/>
       </c>
-      <c r="H6" s="103" t="n"/>
-      <c r="I6" s="103" t="n"/>
-      <c r="J6" s="103" t="n"/>
-      <c r="K6" s="103" t="n"/>
-      <c r="L6" s="104" t="n"/>
-      <c r="M6" s="103" t="n"/>
-      <c r="N6" s="103">
+      <c r="H6" s="55" t="n"/>
+      <c r="I6" s="55" t="n"/>
+      <c r="J6" s="55" t="n"/>
+      <c r="K6" s="55" t="n"/>
+      <c r="L6" s="56" t="n"/>
+      <c r="M6" s="55" t="n"/>
+      <c r="N6" s="55">
         <f>N4-N5</f>
         <v/>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="55">
         <f>O4-O5</f>
         <v/>
       </c>
-      <c r="P6" s="101">
+      <c r="P6" s="53">
         <f>IF($G$3="NA",F6,F6+N6-O6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="94" t="n">
-        <v>13421</v>
-      </c>
-      <c r="C7" s="94" t="n">
-        <v>15305</v>
-      </c>
-      <c r="D7" s="94" t="n">
-        <v>18034</v>
-      </c>
-      <c r="E7" s="94" t="n">
-        <v>22396</v>
-      </c>
-      <c r="F7" s="94" t="n">
-        <v>24239</v>
-      </c>
-      <c r="G7" s="100" t="n"/>
-      <c r="H7" s="101" t="n"/>
-      <c r="I7" s="101" t="n"/>
-      <c r="J7" s="101" t="n"/>
-      <c r="K7" s="101" t="n"/>
-      <c r="L7" s="102" t="n"/>
-      <c r="M7" s="101" t="n"/>
-      <c r="N7" s="101">
+        <v>49</v>
+      </c>
+      <c r="B7" s="87" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C7" s="87" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D7" s="87" t="n">
+        <v>3389</v>
+      </c>
+      <c r="E7" s="87" t="n">
+        <v>4230</v>
+      </c>
+      <c r="F7" s="87" t="n">
+        <v>4898</v>
+      </c>
+      <c r="G7" s="88" t="n"/>
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="53" t="n"/>
+      <c r="J7" s="53" t="n"/>
+      <c r="K7" s="53" t="n"/>
+      <c r="L7" s="54" t="n"/>
+      <c r="M7" s="53" t="n"/>
+      <c r="N7" s="53">
         <f>G7</f>
         <v/>
       </c>
-      <c r="O7" s="94" t="n"/>
-      <c r="P7" s="101">
+      <c r="O7" s="87" t="n"/>
+      <c r="P7" s="53">
         <f>IF($G$3="NA",F7,F7+N7-O7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="103">
+        <v>50</v>
+      </c>
+      <c r="B8" s="55">
         <f>B6-B7</f>
         <v/>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="55">
         <f>C6-C7</f>
         <v/>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="55">
         <f>D6-D7</f>
         <v/>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="55">
         <f>E6-E7</f>
         <v/>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="55">
         <f>F6-F7</f>
         <v/>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="56">
         <f>G6-G7</f>
         <v/>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="55">
         <f>H4*Assumptions!B21</f>
         <v/>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="55">
         <f>I4*Assumptions!C21</f>
         <v/>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="55">
         <f>J4*Assumptions!D21</f>
         <v/>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="55">
         <f>K4*Assumptions!E21</f>
         <v/>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="56">
         <f>L4*Assumptions!F21</f>
         <v/>
       </c>
-      <c r="M8" s="103" t="n"/>
-      <c r="N8" s="103">
+      <c r="M8" s="55" t="n"/>
+      <c r="N8" s="55">
         <f>N6-N7</f>
         <v/>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="55">
         <f>O6-O7</f>
         <v/>
       </c>
-      <c r="P8" s="101">
+      <c r="P8" s="53">
         <f>IF($G$3="NA",F8,F8+N8-O8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="94" t="n">
-        <v>55763</v>
-      </c>
-      <c r="C9" s="94" t="n">
-        <v>50155</v>
-      </c>
-      <c r="D9" s="94" t="n">
-        <v>53483</v>
-      </c>
-      <c r="E9" s="94" t="n">
-        <v>72515</v>
-      </c>
-      <c r="F9" s="94" t="n">
-        <v>61372</v>
-      </c>
-      <c r="G9" s="100" t="n"/>
-      <c r="H9" s="101">
+        <v>51</v>
+      </c>
+      <c r="B9" s="87" t="n">
+        <v>-33</v>
+      </c>
+      <c r="C9" s="87" t="n">
+        <v>-128</v>
+      </c>
+      <c r="D9" s="87" t="n">
+        <v>-358</v>
+      </c>
+      <c r="E9" s="87" t="n">
+        <v>-213</v>
+      </c>
+      <c r="F9" s="87" t="n">
+        <v>64</v>
+      </c>
+      <c r="G9" s="88" t="n"/>
+      <c r="H9" s="53">
         <f>IF(ISERROR(F9*(H8/F8)),"NA",F9*(H8/F8))</f>
         <v/>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="53">
         <f>IF(ISERROR(H9*(I8/H8)),"NA",H9*(I8/H8))</f>
         <v/>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="53">
         <f>IF(ISERROR(I9*(J8/I8)),"NA",I9*(J8/I8))</f>
         <v/>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="53">
         <f>IF(ISERROR(J9*(K8/J8)),"NA",J9*(K8/J8))</f>
         <v/>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="54">
         <f>IF(ISERROR(K9*(L8/K8)),"NA",K9*(L8/K8))</f>
         <v/>
       </c>
-      <c r="M9" s="101" t="n"/>
-      <c r="N9" s="101">
+      <c r="M9" s="53" t="n"/>
+      <c r="N9" s="53">
         <f>G9</f>
         <v/>
       </c>
-      <c r="O9" s="94" t="n"/>
-      <c r="P9" s="101">
+      <c r="O9" s="87" t="n"/>
+      <c r="P9" s="53">
         <f>IF($G$3="NA",F9,F9+N9-O9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="94" t="n">
-        <v>14030</v>
-      </c>
-      <c r="C10" s="94" t="n">
-        <v>13118</v>
-      </c>
-      <c r="D10" s="94" t="n">
-        <v>13973</v>
-      </c>
-      <c r="E10" s="94" t="n">
-        <v>19121</v>
-      </c>
-      <c r="F10" s="94" t="n">
-        <v>15685</v>
-      </c>
-      <c r="G10" s="100" t="n"/>
-      <c r="H10" s="101">
+        <v>52</v>
+      </c>
+      <c r="B10" s="87" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C10" s="87" t="n">
+        <v>143</v>
+      </c>
+      <c r="D10" s="87" t="n">
+        <v>-126</v>
+      </c>
+      <c r="E10" s="87" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="87" t="n">
+        <v>112</v>
+      </c>
+      <c r="G10" s="88" t="n"/>
+      <c r="H10" s="53">
         <f>IF(ISERROR(H9*Assumptions!B22),"NA",Assumptions!B22*'Base Case'!H9)</f>
         <v/>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="53">
         <f>IF(ISERROR(I9*Assumptions!C22),"NA",Assumptions!C22*'Base Case'!I9)</f>
         <v/>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="53">
         <f>IF(ISERROR(J9*Assumptions!D22),"NA",Assumptions!D22*'Base Case'!J9)</f>
         <v/>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="53">
         <f>IF(ISERROR(K9*Assumptions!E22),"NA",Assumptions!E22*'Base Case'!K9)</f>
         <v/>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="54">
         <f>IF(ISERROR(L9*Assumptions!F22),"NA",Assumptions!F22*'Base Case'!L9)</f>
         <v/>
       </c>
-      <c r="M10" s="101" t="n"/>
-      <c r="N10" s="101">
+      <c r="M10" s="53" t="n"/>
+      <c r="N10" s="53">
         <f>G10</f>
         <v/>
       </c>
-      <c r="O10" s="94" t="n"/>
-      <c r="P10" s="101">
+      <c r="O10" s="87" t="n"/>
+      <c r="P10" s="53">
         <f>IF($G$3="NA",F10,F10+N10-O10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="94" t="n">
-        <v>522</v>
-      </c>
-      <c r="C11" s="94" t="n">
-        <v>1292</v>
-      </c>
-      <c r="D11" s="94" t="n">
-        <v>1364</v>
-      </c>
-      <c r="E11" s="94" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F11" s="94" t="n">
-        <v>2804</v>
-      </c>
-      <c r="G11" s="100" t="n"/>
-      <c r="H11" s="101" t="n"/>
-      <c r="I11" s="101" t="n"/>
-      <c r="J11" s="101" t="n"/>
-      <c r="K11" s="101" t="n"/>
-      <c r="L11" s="102" t="n"/>
-      <c r="M11" s="101" t="n"/>
-      <c r="N11" s="101">
+        <v>53</v>
+      </c>
+      <c r="B11" s="87" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" s="87" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="87" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="87" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" s="88" t="n"/>
+      <c r="H11" s="53" t="n"/>
+      <c r="I11" s="53" t="n"/>
+      <c r="J11" s="53" t="n"/>
+      <c r="K11" s="53" t="n"/>
+      <c r="L11" s="54" t="n"/>
+      <c r="M11" s="53" t="n"/>
+      <c r="N11" s="53">
         <f>G11</f>
         <v/>
       </c>
-      <c r="O11" s="94" t="n"/>
-      <c r="P11" s="101">
+      <c r="O11" s="87" t="n"/>
+      <c r="P11" s="53">
         <f>IF($G$3="NA",F11,F11+N11-O11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="103">
-        <f>B9-B10+B11</f>
-        <v/>
-      </c>
-      <c r="C12" s="103">
-        <f>C9-C10+C11</f>
-        <v/>
-      </c>
-      <c r="D12" s="103">
-        <f>D9-D10+D11</f>
-        <v/>
-      </c>
-      <c r="E12" s="103">
-        <f>E9-E10+E11</f>
-        <v/>
-      </c>
-      <c r="F12" s="103">
-        <f>F9-F10+F11</f>
-        <v/>
-      </c>
-      <c r="G12" s="103">
-        <f>G9-G10+G11</f>
+        <v>54</v>
+      </c>
+      <c r="B12" s="55">
+        <f>B9-B10</f>
+        <v/>
+      </c>
+      <c r="C12" s="55">
+        <f>C9-C10</f>
+        <v/>
+      </c>
+      <c r="D12" s="55">
+        <f>D9-D10</f>
+        <v/>
+      </c>
+      <c r="E12" s="55">
+        <f>E9-E10</f>
+        <v/>
+      </c>
+      <c r="F12" s="55">
+        <f>F9-F10</f>
+        <v/>
+      </c>
+      <c r="G12" s="55">
+        <f>G9-G10</f>
         <v/>
       </c>
       <c r="H12" s="57" t="n"/>
-      <c r="I12" s="103" t="n"/>
-      <c r="J12" s="103" t="n"/>
-      <c r="K12" s="103" t="n"/>
-      <c r="L12" s="104" t="n"/>
-      <c r="M12" s="103" t="n"/>
-      <c r="N12" s="103">
+      <c r="I12" s="55" t="n"/>
+      <c r="J12" s="55" t="n"/>
+      <c r="K12" s="55" t="n"/>
+      <c r="L12" s="56" t="n"/>
+      <c r="M12" s="55" t="n"/>
+      <c r="N12" s="55">
         <f>N9-N10+N11</f>
         <v/>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="55">
         <f>O9-O10+O11</f>
         <v/>
       </c>
-      <c r="P12" s="101">
+      <c r="P12" s="53">
         <f>IF($G$3="NA",F12,F12+N12-O12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="101" t="n"/>
-      <c r="C13" s="101" t="n"/>
-      <c r="D13" s="101" t="n"/>
-      <c r="E13" s="101" t="n"/>
-      <c r="F13" s="101" t="n"/>
-      <c r="G13" s="101" t="n"/>
-      <c r="H13" s="101" t="n"/>
-      <c r="I13" s="101" t="n"/>
-      <c r="J13" s="101" t="n"/>
-      <c r="K13" s="101" t="n"/>
-      <c r="L13" s="102" t="n"/>
-      <c r="M13" s="101" t="n"/>
-      <c r="N13" s="101" t="n"/>
-      <c r="O13" s="101" t="n"/>
-      <c r="P13" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
+      <c r="B13" s="53" t="n"/>
+      <c r="C13" s="53" t="n"/>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="53" t="n"/>
+      <c r="F13" s="53" t="n"/>
+      <c r="G13" s="53" t="n"/>
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="53" t="n"/>
+      <c r="J13" s="53" t="n"/>
+      <c r="K13" s="53" t="n"/>
+      <c r="L13" s="54" t="n"/>
+      <c r="M13" s="53" t="n"/>
+      <c r="N13" s="53" t="n"/>
+      <c r="O13" s="53" t="n"/>
+      <c r="P13" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -2526,133 +2462,133 @@
         <f>O3</f>
         <v/>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="94" t="n">
-        <v>-11488</v>
-      </c>
-      <c r="C15" s="94" t="n">
-        <v>-12229</v>
-      </c>
-      <c r="D15" s="94" t="n">
-        <v>-12352</v>
-      </c>
-      <c r="E15" s="94" t="n">
-        <v>-13168</v>
-      </c>
-      <c r="F15" s="94" t="n">
-        <v>-13548</v>
-      </c>
-      <c r="G15" s="100" t="n"/>
-      <c r="H15" s="101">
+        <v>56</v>
+      </c>
+      <c r="B15" s="87" t="n">
+        <v>-853</v>
+      </c>
+      <c r="C15" s="87" t="n">
+        <v>-710</v>
+      </c>
+      <c r="D15" s="87" t="n">
+        <v>-297</v>
+      </c>
+      <c r="E15" s="87" t="n">
+        <v>-328</v>
+      </c>
+      <c r="F15" s="87" t="n">
+        <v>-388</v>
+      </c>
+      <c r="G15" s="88" t="n"/>
+      <c r="H15" s="53">
         <f>H4*Assumptions!B23</f>
         <v/>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="53">
         <f>I4*Assumptions!C23</f>
         <v/>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="53">
         <f>J4*Assumptions!D23</f>
         <v/>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="53">
         <f>K4*Assumptions!E23</f>
         <v/>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="54">
         <f>L4*Assumptions!F23</f>
         <v/>
       </c>
-      <c r="M15" s="101" t="n"/>
-      <c r="N15" s="101">
+      <c r="M15" s="53" t="n"/>
+      <c r="N15" s="53">
         <f>G15</f>
         <v/>
       </c>
-      <c r="O15" s="94" t="n"/>
-      <c r="P15" s="101">
+      <c r="O15" s="87" t="n"/>
+      <c r="P15" s="53">
         <f>IF($G$3="NA",F15,F15+N15-O15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="94" t="n">
-        <v>11257</v>
-      </c>
-      <c r="C16" s="94" t="n">
-        <v>11636</v>
-      </c>
-      <c r="D16" s="94" t="n">
-        <v>11634</v>
-      </c>
-      <c r="E16" s="94" t="n">
-        <v>11076</v>
-      </c>
-      <c r="F16" s="94" t="n">
-        <v>10505</v>
-      </c>
-      <c r="G16" s="100" t="n"/>
-      <c r="H16" s="101">
+        <v>57</v>
+      </c>
+      <c r="B16" s="87" t="n">
+        <v>512</v>
+      </c>
+      <c r="C16" s="87" t="n">
+        <v>526</v>
+      </c>
+      <c r="D16" s="87" t="n">
+        <v>531</v>
+      </c>
+      <c r="E16" s="87" t="n">
+        <v>548</v>
+      </c>
+      <c r="F16" s="87" t="n">
+        <v>583</v>
+      </c>
+      <c r="G16" s="88" t="n"/>
+      <c r="H16" s="53">
         <f>Assumptions!B24*'Base Case'!H4</f>
         <v/>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="53">
         <f>Assumptions!C24*'Base Case'!I4</f>
         <v/>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="53">
         <f>Assumptions!D24*'Base Case'!J4</f>
         <v/>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="53">
         <f>Assumptions!E24*'Base Case'!K4</f>
         <v/>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="54">
         <f>Assumptions!F24*'Base Case'!L4</f>
         <v/>
       </c>
-      <c r="M16" s="101" t="n"/>
-      <c r="N16" s="101">
+      <c r="M16" s="53" t="n"/>
+      <c r="N16" s="53">
         <f>G16</f>
         <v/>
       </c>
-      <c r="O16" s="94" t="n"/>
-      <c r="P16" s="101">
+      <c r="O16" s="87" t="n"/>
+      <c r="P16" s="53">
         <f>IF($G$3="NA",F16,F16+N16-O16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="101" t="n"/>
-      <c r="C17" s="101" t="n"/>
-      <c r="D17" s="101" t="n"/>
-      <c r="E17" s="101" t="n"/>
-      <c r="F17" s="101" t="n"/>
-      <c r="G17" s="101" t="n"/>
-      <c r="H17" s="101" t="n"/>
-      <c r="I17" s="101" t="n"/>
-      <c r="J17" s="101" t="n"/>
-      <c r="K17" s="101" t="n"/>
-      <c r="L17" s="101" t="n"/>
-      <c r="M17" s="101" t="n"/>
-      <c r="N17" s="101" t="n"/>
-      <c r="O17" s="101" t="n"/>
-      <c r="P17" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
+      <c r="B17" s="53" t="n"/>
+      <c r="C17" s="53" t="n"/>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="53" t="n"/>
+      <c r="G17" s="53" t="n"/>
+      <c r="H17" s="53" t="n"/>
+      <c r="I17" s="53" t="n"/>
+      <c r="J17" s="53" t="n"/>
+      <c r="K17" s="53" t="n"/>
+      <c r="L17" s="53" t="n"/>
+      <c r="M17" s="53" t="n"/>
+      <c r="N17" s="53" t="n"/>
+      <c r="O17" s="53" t="n"/>
+      <c r="P17" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -2704,498 +2640,498 @@
         <v/>
       </c>
       <c r="O18" s="60" t="n"/>
-      <c r="P18" s="105">
+      <c r="P18" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="94" t="n">
-        <v>791</v>
-      </c>
-      <c r="C19" s="94" t="n">
-        <v>1764</v>
-      </c>
-      <c r="D19" s="94" t="n">
-        <v>2111</v>
-      </c>
-      <c r="E19" s="94" t="n">
-        <v>2349</v>
-      </c>
-      <c r="F19" s="94" t="n">
-        <v>2132</v>
-      </c>
-      <c r="G19" s="100" t="n"/>
-      <c r="H19" s="101" t="n"/>
-      <c r="I19" s="101" t="n"/>
-      <c r="J19" s="101" t="n"/>
-      <c r="K19" s="101" t="n"/>
-      <c r="L19" s="102" t="n"/>
-      <c r="M19" s="101" t="n"/>
-      <c r="N19" s="101">
+        <v>59</v>
+      </c>
+      <c r="B19" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="88" t="n"/>
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="53" t="n"/>
+      <c r="J19" s="53" t="n"/>
+      <c r="K19" s="53" t="n"/>
+      <c r="L19" s="54" t="n"/>
+      <c r="M19" s="53" t="n"/>
+      <c r="N19" s="53">
         <f>G19</f>
         <v/>
       </c>
-      <c r="O19" s="94" t="n"/>
-      <c r="P19" s="101">
+      <c r="O19" s="87" t="n"/>
+      <c r="P19" s="53">
         <f>IF($G$3="NA",F19,F19+N19-O19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="94" t="n">
-        <v>18383</v>
-      </c>
-      <c r="C20" s="94" t="n">
-        <v>26287</v>
-      </c>
-      <c r="D20" s="94" t="n">
-        <v>11233</v>
-      </c>
-      <c r="E20" s="94" t="n">
-        <v>20481</v>
-      </c>
-      <c r="F20" s="94" t="n">
-        <v>46671</v>
-      </c>
-      <c r="G20" s="100" t="n"/>
-      <c r="H20" s="101" t="n"/>
-      <c r="I20" s="101" t="n"/>
-      <c r="J20" s="101" t="n"/>
-      <c r="K20" s="101" t="n"/>
-      <c r="L20" s="102" t="n"/>
-      <c r="M20" s="101" t="n"/>
-      <c r="N20" s="101">
+        <v>60</v>
+      </c>
+      <c r="B20" s="87" t="n">
+        <v>778</v>
+      </c>
+      <c r="C20" s="87" t="n">
+        <v>867</v>
+      </c>
+      <c r="D20" s="87" t="n">
+        <v>839</v>
+      </c>
+      <c r="E20" s="87" t="n">
+        <v>995</v>
+      </c>
+      <c r="F20" s="87" t="n">
+        <v>1341</v>
+      </c>
+      <c r="G20" s="88" t="n"/>
+      <c r="H20" s="53" t="n"/>
+      <c r="I20" s="53" t="n"/>
+      <c r="J20" s="53" t="n"/>
+      <c r="K20" s="53" t="n"/>
+      <c r="L20" s="54" t="n"/>
+      <c r="M20" s="53" t="n"/>
+      <c r="N20" s="53">
         <f>G20</f>
         <v/>
       </c>
-      <c r="O20" s="94" t="n"/>
-      <c r="P20" s="101">
+      <c r="O20" s="87" t="n"/>
+      <c r="P20" s="53">
         <f>IF($G$3="NA",F20,F20+N20-O20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="94" t="n">
-        <v>57653</v>
-      </c>
-      <c r="C21" s="94" t="n">
-        <v>73286</v>
-      </c>
-      <c r="D21" s="94" t="n">
-        <v>68531</v>
-      </c>
-      <c r="E21" s="94" t="n">
-        <v>89378</v>
-      </c>
-      <c r="F21" s="94" t="n">
-        <v>106869</v>
-      </c>
-      <c r="G21" s="100" t="n"/>
-      <c r="H21" s="101" t="n"/>
-      <c r="I21" s="101" t="n"/>
-      <c r="J21" s="101" t="n"/>
-      <c r="K21" s="101" t="n"/>
-      <c r="L21" s="102" t="n"/>
-      <c r="M21" s="101" t="n"/>
-      <c r="N21" s="101">
+        <v>61</v>
+      </c>
+      <c r="B21" s="87" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C21" s="87" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="87" t="n">
+        <v>2680</v>
+      </c>
+      <c r="E21" s="87" t="n">
+        <v>3515</v>
+      </c>
+      <c r="F21" s="87" t="n">
+        <v>4347</v>
+      </c>
+      <c r="G21" s="88" t="n"/>
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="53" t="n"/>
+      <c r="J21" s="53" t="n"/>
+      <c r="K21" s="53" t="n"/>
+      <c r="L21" s="54" t="n"/>
+      <c r="M21" s="53" t="n"/>
+      <c r="N21" s="53">
         <f>G21</f>
         <v/>
       </c>
-      <c r="O21" s="94" t="n"/>
-      <c r="P21" s="101">
+      <c r="O21" s="87" t="n"/>
+      <c r="P21" s="53">
         <f>IF($G$3="NA",F21,F21+N21-O21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="94" t="n">
-        <v>176064</v>
-      </c>
-      <c r="C22" s="94" t="n">
-        <v>207000</v>
-      </c>
-      <c r="D22" s="94" t="n">
-        <v>231839</v>
-      </c>
-      <c r="E22" s="94" t="n">
-        <v>290345</v>
-      </c>
-      <c r="F22" s="94" t="n">
-        <v>321686</v>
-      </c>
-      <c r="G22" s="100" t="n"/>
-      <c r="H22" s="101" t="n"/>
-      <c r="I22" s="101" t="n"/>
-      <c r="J22" s="101" t="n"/>
-      <c r="K22" s="101" t="n"/>
-      <c r="L22" s="102" t="n"/>
-      <c r="M22" s="101" t="n"/>
-      <c r="N22" s="101">
+        <v>62</v>
+      </c>
+      <c r="B22" s="87" t="n">
+        <v>4164</v>
+      </c>
+      <c r="C22" s="87" t="n">
+        <v>5529</v>
+      </c>
+      <c r="D22" s="87" t="n">
+        <v>9153</v>
+      </c>
+      <c r="E22" s="87" t="n">
+        <v>10665</v>
+      </c>
+      <c r="F22" s="87" t="n">
+        <v>12763</v>
+      </c>
+      <c r="G22" s="88" t="n"/>
+      <c r="H22" s="53" t="n"/>
+      <c r="I22" s="53" t="n"/>
+      <c r="J22" s="53" t="n"/>
+      <c r="K22" s="53" t="n"/>
+      <c r="L22" s="54" t="n"/>
+      <c r="M22" s="53" t="n"/>
+      <c r="N22" s="53">
         <f>G22</f>
         <v/>
       </c>
-      <c r="O22" s="94" t="n"/>
-      <c r="P22" s="101">
+      <c r="O22" s="87" t="n"/>
+      <c r="P22" s="53">
         <f>IF($G$3="NA",F22,F22+N22-O22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="94" t="n">
-        <v/>
-      </c>
-      <c r="C23" s="94" t="n">
-        <v/>
-      </c>
-      <c r="D23" s="94" t="n">
-        <v>6308</v>
-      </c>
-      <c r="E23" s="94" t="n">
-        <v>10999</v>
-      </c>
-      <c r="F23" s="94" t="n">
-        <v>11605</v>
-      </c>
-      <c r="G23" s="100" t="n"/>
-      <c r="H23" s="101" t="n"/>
-      <c r="I23" s="101" t="n"/>
-      <c r="J23" s="101" t="n"/>
-      <c r="K23" s="101" t="n"/>
-      <c r="L23" s="102" t="n"/>
-      <c r="M23" s="101" t="n"/>
-      <c r="N23" s="101">
+        <v>63</v>
+      </c>
+      <c r="B23" s="87" t="n">
+        <v>496</v>
+      </c>
+      <c r="C23" s="87" t="n">
+        <v>521</v>
+      </c>
+      <c r="D23" s="87" t="n">
+        <v>572</v>
+      </c>
+      <c r="E23" s="87" t="n">
+        <v/>
+      </c>
+      <c r="F23" s="87" t="n">
+        <v/>
+      </c>
+      <c r="G23" s="88" t="n"/>
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="53" t="n"/>
+      <c r="J23" s="53" t="n"/>
+      <c r="K23" s="53" t="n"/>
+      <c r="L23" s="54" t="n"/>
+      <c r="M23" s="53" t="n"/>
+      <c r="N23" s="53">
         <f>G23</f>
         <v/>
       </c>
-      <c r="O23" s="94" t="n"/>
-      <c r="P23" s="101">
+      <c r="O23" s="87" t="n"/>
+      <c r="P23" s="53">
         <f>IF($G$3="NA",F23,F23+N23-O23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="94" t="n">
-        <v>38542</v>
-      </c>
-      <c r="C24" s="94" t="n">
-        <v>43658</v>
-      </c>
-      <c r="D24" s="94" t="n">
-        <v>63448</v>
-      </c>
-      <c r="E24" s="94" t="n">
-        <v>80610</v>
-      </c>
-      <c r="F24" s="94" t="n">
-        <v>79006</v>
-      </c>
-      <c r="G24" s="100" t="n"/>
-      <c r="H24" s="101" t="n"/>
-      <c r="I24" s="101" t="n"/>
-      <c r="J24" s="101" t="n"/>
-      <c r="K24" s="101" t="n"/>
-      <c r="L24" s="102" t="n"/>
-      <c r="M24" s="101" t="n"/>
-      <c r="N24" s="101">
+        <v>64</v>
+      </c>
+      <c r="B24" s="87" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="87" t="n">
+        <v>2918</v>
+      </c>
+      <c r="D24" s="87" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E24" s="87" t="n">
+        <v>4390</v>
+      </c>
+      <c r="F24" s="87" t="n">
+        <v>5617</v>
+      </c>
+      <c r="G24" s="88" t="n"/>
+      <c r="H24" s="53" t="n"/>
+      <c r="I24" s="53" t="n"/>
+      <c r="J24" s="53" t="n"/>
+      <c r="K24" s="53" t="n"/>
+      <c r="L24" s="54" t="n"/>
+      <c r="M24" s="53" t="n"/>
+      <c r="N24" s="53">
         <f>G24</f>
         <v/>
       </c>
-      <c r="O24" s="94" t="n"/>
-      <c r="P24" s="101">
+      <c r="O24" s="87" t="n"/>
+      <c r="P24" s="53">
         <f>IF($G$3="NA",F24,F24+N24-O24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="94" t="n">
-        <v/>
-      </c>
-      <c r="C25" s="94" t="n">
-        <v>16960</v>
-      </c>
-      <c r="D25" s="94" t="n">
-        <v>28987</v>
-      </c>
-      <c r="E25" s="94" t="n">
-        <v>53329</v>
-      </c>
-      <c r="F25" s="94" t="n">
-        <v>75427</v>
-      </c>
-      <c r="G25" s="100" t="n"/>
-      <c r="H25" s="101" t="n"/>
-      <c r="I25" s="101" t="n"/>
-      <c r="J25" s="101" t="n"/>
-      <c r="K25" s="101" t="n"/>
-      <c r="L25" s="102" t="n"/>
-      <c r="M25" s="101" t="n"/>
-      <c r="N25" s="101">
+        <v>65</v>
+      </c>
+      <c r="B25" s="87" t="n">
+        <v/>
+      </c>
+      <c r="C25" s="87" t="n">
+        <v/>
+      </c>
+      <c r="D25" s="87" t="n">
+        <v>1302</v>
+      </c>
+      <c r="E25" s="87" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F25" s="87" t="n">
+        <v>1286</v>
+      </c>
+      <c r="G25" s="88" t="n"/>
+      <c r="H25" s="53" t="n"/>
+      <c r="I25" s="53" t="n"/>
+      <c r="J25" s="53" t="n"/>
+      <c r="K25" s="53" t="n"/>
+      <c r="L25" s="54" t="n"/>
+      <c r="M25" s="53" t="n"/>
+      <c r="N25" s="53">
         <f>G25</f>
         <v/>
       </c>
-      <c r="O25" s="94" t="n"/>
-      <c r="P25" s="101">
+      <c r="O25" s="87" t="n"/>
+      <c r="P25" s="53">
         <f>IF($G$3="NA",F25,F25+N25-O25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="94" t="n">
-        <v>57854</v>
-      </c>
-      <c r="C26" s="94" t="n">
-        <v>83451</v>
-      </c>
-      <c r="D26" s="94" t="n">
-        <v>120292</v>
-      </c>
-      <c r="E26" s="94" t="n">
-        <v>170990</v>
-      </c>
-      <c r="F26" s="94" t="n">
-        <v>193437</v>
-      </c>
-      <c r="G26" s="100" t="n"/>
-      <c r="H26" s="101" t="n"/>
-      <c r="I26" s="101" t="n"/>
-      <c r="J26" s="101" t="n"/>
-      <c r="K26" s="101" t="n"/>
-      <c r="L26" s="102" t="n"/>
-      <c r="M26" s="101" t="n"/>
-      <c r="N26" s="101">
+        <v>66</v>
+      </c>
+      <c r="B26" s="87" t="n">
+        <v>2577</v>
+      </c>
+      <c r="C26" s="87" t="n">
+        <v>3211</v>
+      </c>
+      <c r="D26" s="87" t="n">
+        <v>6114</v>
+      </c>
+      <c r="E26" s="87" t="n">
+        <v>6690</v>
+      </c>
+      <c r="F26" s="87" t="n">
+        <v>7760</v>
+      </c>
+      <c r="G26" s="88" t="n"/>
+      <c r="H26" s="53" t="n"/>
+      <c r="I26" s="53" t="n"/>
+      <c r="J26" s="53" t="n"/>
+      <c r="K26" s="53" t="n"/>
+      <c r="L26" s="54" t="n"/>
+      <c r="M26" s="53" t="n"/>
+      <c r="N26" s="53">
         <f>G26</f>
         <v/>
       </c>
-      <c r="O26" s="94" t="n"/>
-      <c r="P26" s="101">
+      <c r="O26" s="87" t="n"/>
+      <c r="P26" s="53">
         <f>IF($G$3="NA",F26,F26+N26-O26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="94" t="n">
-        <v>118210</v>
-      </c>
-      <c r="C27" s="94" t="n">
-        <v>123549</v>
-      </c>
-      <c r="D27" s="94" t="n">
-        <v>111547</v>
-      </c>
-      <c r="E27" s="94" t="n">
-        <v>119355</v>
-      </c>
-      <c r="F27" s="94" t="n">
-        <v>128249</v>
-      </c>
-      <c r="G27" s="100" t="n"/>
-      <c r="H27" s="101" t="n"/>
-      <c r="I27" s="101" t="n"/>
-      <c r="J27" s="101" t="n"/>
-      <c r="K27" s="101" t="n"/>
-      <c r="L27" s="102" t="n"/>
-      <c r="M27" s="101" t="n"/>
-      <c r="N27" s="101">
+        <v>67</v>
+      </c>
+      <c r="B27" s="87" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C27" s="87" t="n">
+        <v>2318</v>
+      </c>
+      <c r="D27" s="87" t="n">
+        <v>3039</v>
+      </c>
+      <c r="E27" s="87" t="n">
+        <v>3975</v>
+      </c>
+      <c r="F27" s="87" t="n">
+        <v>5003</v>
+      </c>
+      <c r="G27" s="88" t="n"/>
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="53" t="n"/>
+      <c r="J27" s="53" t="n"/>
+      <c r="K27" s="53" t="n"/>
+      <c r="L27" s="54" t="n"/>
+      <c r="M27" s="53" t="n"/>
+      <c r="N27" s="53">
         <f>G27</f>
         <v/>
       </c>
-      <c r="O27" s="94" t="n"/>
-      <c r="P27" s="101">
+      <c r="O27" s="87" t="n"/>
+      <c r="P27" s="53">
         <f>IF($G$3="NA",F27,F27+N27-O27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="101">
+        <v>68</v>
+      </c>
+      <c r="B28" s="53">
         <f>B22-B26-B27</f>
         <v/>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="53">
         <f>C22-C26-C27</f>
         <v/>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="53">
         <f>D22-D26-D27</f>
         <v/>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="53">
         <f>E22-E26-E27</f>
         <v/>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="53">
         <f>F22-F26-F27</f>
         <v/>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="54">
         <f>G22-G26-G27</f>
         <v/>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="53">
         <f>H22-H26-H27</f>
         <v/>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="53">
         <f>I22-I26-I27</f>
         <v/>
       </c>
-      <c r="J28" s="101">
+      <c r="J28" s="53">
         <f>J22-J26-J27</f>
         <v/>
       </c>
-      <c r="K28" s="101">
+      <c r="K28" s="53">
         <f>K22-K26-K27</f>
         <v/>
       </c>
-      <c r="L28" s="102">
+      <c r="L28" s="54">
         <f>L22-L26-L27</f>
         <v/>
       </c>
-      <c r="M28" s="101" t="n"/>
-      <c r="N28" s="101">
+      <c r="M28" s="53" t="n"/>
+      <c r="N28" s="53">
         <f>N22-N26-N27</f>
         <v/>
       </c>
-      <c r="P28" s="101">
+      <c r="P28" s="53">
         <f>IF($G$3="NA",F28,F28+N28-O28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="103">
+        <v>69</v>
+      </c>
+      <c r="B29" s="55">
         <f>B21-B24-B20+B23</f>
         <v/>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="55">
         <f>C21-C24-C20+C23</f>
         <v/>
       </c>
-      <c r="D29" s="103">
+      <c r="D29" s="55">
         <f>D21-D24-D20+D23</f>
         <v/>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="55">
         <f>E21-E24-E20+E23</f>
         <v/>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="55">
         <f>F21-F24-F20+F23</f>
         <v/>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="56">
         <f>G21-G24-G20+G23</f>
         <v/>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="55">
         <f>H4*Assumptions!B25</f>
         <v/>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="55">
         <f>I4*Assumptions!C25</f>
         <v/>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="55">
         <f>J4*Assumptions!D25</f>
         <v/>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="55">
         <f>K4*Assumptions!E25</f>
         <v/>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="56">
         <f>L4*Assumptions!F25</f>
         <v/>
       </c>
-      <c r="M29" s="103" t="n"/>
-      <c r="N29" s="103">
+      <c r="M29" s="55" t="n"/>
+      <c r="N29" s="55">
         <f>N21-N24-N20+N23</f>
         <v/>
       </c>
-      <c r="O29" s="103" t="n"/>
-      <c r="P29" s="103">
+      <c r="O29" s="55" t="n"/>
+      <c r="P29" s="55">
         <f>IF($G$3="NA",F29,F29+N29-O29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="106" t="n"/>
-      <c r="C30" s="107">
+        <v>70</v>
+      </c>
+      <c r="B30" s="89" t="n"/>
+      <c r="C30" s="62">
         <f>C29-B29</f>
         <v/>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="62">
         <f>D29-C29</f>
         <v/>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="62">
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="62">
         <f>F29-E29</f>
         <v/>
       </c>
       <c r="G30" s="63" t="n"/>
-      <c r="H30" s="107">
+      <c r="H30" s="62">
         <f>H29-F29</f>
         <v/>
       </c>
-      <c r="I30" s="107">
+      <c r="I30" s="62">
         <f>I29-H29</f>
         <v/>
       </c>
-      <c r="J30" s="107">
+      <c r="J30" s="62">
         <f>J29-I29</f>
         <v/>
       </c>
-      <c r="K30" s="107">
+      <c r="K30" s="62">
         <f>K29-J29</f>
         <v/>
       </c>
-      <c r="L30" s="108">
+      <c r="L30" s="64">
         <f>L29-K29</f>
         <v/>
       </c>
       <c r="M30" s="65" t="n"/>
-      <c r="N30" s="103" t="n"/>
+      <c r="N30" s="55" t="n"/>
       <c r="O30" s="65" t="n"/>
-      <c r="P30" s="103">
+      <c r="P30" s="55">
         <f>IF($G$3="NA",F30,F30+N30-O30)</f>
         <v/>
       </c>
@@ -3204,7 +3140,6 @@
     <row r="32" spans="1:17"/>
     <row r="33" spans="1:17"/>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <conditionalFormatting sqref="G4">
     <cfRule dxfId="0" priority="10" type="expression">
       <formula>$G$3="NA"</formula>
@@ -3246,7 +3181,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -3263,24 +3197,24 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.28515625"/>
-    <col customWidth="1" max="6" min="2" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.140625"/>
-    <col customWidth="1" max="13" min="8" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.140625"/>
-    <col customWidth="1" max="16" min="15" style="21" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.33203125"/>
+    <col customWidth="1" max="6" min="2" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.1640625"/>
+    <col customWidth="1" max="13" min="8" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.1640625"/>
+    <col customWidth="1" max="16" min="15" style="21" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -3288,16 +3222,16 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
       <c r="K2" s="45" t="n"/>
       <c r="L2" s="45" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -3353,512 +3287,512 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="109">
+        <v>46</v>
+      </c>
+      <c r="B4" s="51">
         <f>'Base Case'!B4</f>
         <v/>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="51">
         <f>'Base Case'!C4</f>
         <v/>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="51">
         <f>'Base Case'!D4</f>
         <v/>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="51">
         <f>'Base Case'!E4</f>
         <v/>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="51">
         <f>'Base Case'!F4</f>
         <v/>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="52">
         <f>'Base Case'!G4</f>
         <v/>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="53">
         <f>F4*(1+Assumptions!B29)</f>
         <v/>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="53">
         <f>H4*(1+Assumptions!C29)</f>
         <v/>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="53">
         <f>I4*(1+Assumptions!D29)</f>
         <v/>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="53">
         <f>J4*(1+Assumptions!E29)</f>
         <v/>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="66">
         <f>K4*(1+Assumptions!F29)</f>
         <v/>
       </c>
-      <c r="M4" s="101" t="n"/>
-      <c r="N4" s="109">
+      <c r="M4" s="53" t="n"/>
+      <c r="N4" s="51">
         <f>G4</f>
         <v/>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="51">
         <f>'Base Case'!O4</f>
         <v/>
       </c>
-      <c r="P4" s="101">
+      <c r="P4" s="53">
         <f>IF($G$3="NA",F4,F4+N4-O4)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="109">
+        <v>47</v>
+      </c>
+      <c r="B5" s="51">
         <f>'Base Case'!B5</f>
         <v/>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="51">
         <f>'Base Case'!C5</f>
         <v/>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="51">
         <f>'Base Case'!D5</f>
         <v/>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="51">
         <f>'Base Case'!E5</f>
         <v/>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="51">
         <f>'Base Case'!F5</f>
         <v/>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="52">
         <f>'Base Case'!G5</f>
         <v/>
       </c>
-      <c r="H5" s="101" t="n"/>
-      <c r="I5" s="101" t="n"/>
-      <c r="J5" s="101" t="n"/>
-      <c r="K5" s="101" t="n"/>
-      <c r="L5" s="102" t="n"/>
-      <c r="M5" s="101" t="n"/>
-      <c r="N5" s="109">
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="53" t="n"/>
+      <c r="J5" s="53" t="n"/>
+      <c r="K5" s="53" t="n"/>
+      <c r="L5" s="54" t="n"/>
+      <c r="M5" s="53" t="n"/>
+      <c r="N5" s="51">
         <f>G5</f>
         <v/>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="51">
         <f>'Base Case'!O5</f>
         <v/>
       </c>
-      <c r="P5" s="101">
+      <c r="P5" s="53">
         <f>IF($G$3="NA",F5,F5+N5-O5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="103">
+        <v>48</v>
+      </c>
+      <c r="B6" s="55">
         <f>B4-B5</f>
         <v/>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="55">
         <f>C4-C5</f>
         <v/>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="55">
         <f>D4-D5</f>
         <v/>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="55">
         <f>E4-E5</f>
         <v/>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="55">
         <f>F4-F5</f>
         <v/>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="56">
         <f>G4-G5</f>
         <v/>
       </c>
-      <c r="H6" s="103" t="n"/>
-      <c r="I6" s="103" t="n"/>
-      <c r="J6" s="103" t="n"/>
-      <c r="K6" s="103" t="n"/>
-      <c r="L6" s="104" t="n"/>
-      <c r="M6" s="103" t="n"/>
-      <c r="N6" s="103">
+      <c r="H6" s="55" t="n"/>
+      <c r="I6" s="55" t="n"/>
+      <c r="J6" s="55" t="n"/>
+      <c r="K6" s="55" t="n"/>
+      <c r="L6" s="56" t="n"/>
+      <c r="M6" s="55" t="n"/>
+      <c r="N6" s="55">
         <f>N4-N5</f>
         <v/>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="55">
         <f>O4-O5</f>
         <v/>
       </c>
-      <c r="P6" s="101">
+      <c r="P6" s="53">
         <f>IF($G$3="NA",F6,F6+N6-O6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="109">
+        <v>49</v>
+      </c>
+      <c r="B7" s="51">
         <f>'Base Case'!B7</f>
         <v/>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="51">
         <f>'Base Case'!C7</f>
         <v/>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="51">
         <f>'Base Case'!D7</f>
         <v/>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="51">
         <f>'Base Case'!E7</f>
         <v/>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="51">
         <f>'Base Case'!F7</f>
         <v/>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="52">
         <f>'Base Case'!G7</f>
         <v/>
       </c>
-      <c r="H7" s="101" t="n"/>
-      <c r="I7" s="101" t="n"/>
-      <c r="J7" s="101" t="n"/>
-      <c r="K7" s="101" t="n"/>
-      <c r="L7" s="102" t="n"/>
-      <c r="M7" s="101" t="n"/>
-      <c r="N7" s="109">
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="53" t="n"/>
+      <c r="J7" s="53" t="n"/>
+      <c r="K7" s="53" t="n"/>
+      <c r="L7" s="54" t="n"/>
+      <c r="M7" s="53" t="n"/>
+      <c r="N7" s="51">
         <f>G7</f>
         <v/>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="51">
         <f>'Base Case'!O7</f>
         <v/>
       </c>
-      <c r="P7" s="101">
+      <c r="P7" s="53">
         <f>IF($G$3="NA",F7,F7+N7-O7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="103">
+        <v>50</v>
+      </c>
+      <c r="B8" s="55">
         <f>B6-B7</f>
         <v/>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="55">
         <f>C6-C7</f>
         <v/>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="55">
         <f>D6-D7</f>
         <v/>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="55">
         <f>E6-E7</f>
         <v/>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="55">
         <f>F6-F7</f>
         <v/>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="56">
         <f>G6-G7</f>
         <v/>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="55">
         <f>H4*Assumptions!B30</f>
         <v/>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="55">
         <f>I4*Assumptions!C30</f>
         <v/>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="55">
         <f>J4*Assumptions!D30</f>
         <v/>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="55">
         <f>K4*Assumptions!E30</f>
         <v/>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="56">
         <f>L4*Assumptions!F30</f>
         <v/>
       </c>
-      <c r="M8" s="103" t="n"/>
-      <c r="N8" s="103">
+      <c r="M8" s="55" t="n"/>
+      <c r="N8" s="55">
         <f>N6-N7</f>
         <v/>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="55">
         <f>O6-O7</f>
         <v/>
       </c>
-      <c r="P8" s="101">
+      <c r="P8" s="53">
         <f>IF($G$3="NA",F8,F8+N8-O8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="109">
+        <v>51</v>
+      </c>
+      <c r="B9" s="51">
         <f>'Base Case'!B9</f>
         <v/>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="51">
         <f>'Base Case'!C9</f>
         <v/>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="51">
         <f>'Base Case'!D9</f>
         <v/>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="51">
         <f>'Base Case'!E9</f>
         <v/>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="51">
         <f>'Base Case'!F9</f>
         <v/>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="52">
         <f>'Base Case'!G9</f>
         <v/>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="53">
         <f>IF(ISERROR(F9*(H8/F8)),"NA",F9*(H8/F8))</f>
         <v/>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="53">
         <f>IF(ISERROR(H9*(I8/H8)),"NA",H9*(I8/H8))</f>
         <v/>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="53">
         <f>IF(ISERROR(I9*(J8/I8)),"NA",I9*(J8/I8))</f>
         <v/>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="53">
         <f>IF(ISERROR(J9*(K8/J8)),"NA",J9*(K8/J8))</f>
         <v/>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="54">
         <f>IF(ISERROR(K9*(L8/K8)),"NA",K9*(L8/K8))</f>
         <v/>
       </c>
-      <c r="M9" s="101" t="n"/>
-      <c r="N9" s="109">
+      <c r="M9" s="53" t="n"/>
+      <c r="N9" s="51">
         <f>G9</f>
         <v/>
       </c>
-      <c r="O9" s="109">
+      <c r="O9" s="51">
         <f>'Base Case'!O9</f>
         <v/>
       </c>
-      <c r="P9" s="101">
+      <c r="P9" s="53">
         <f>IF($G$3="NA",F9,F9+N9-O9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="109">
+        <v>52</v>
+      </c>
+      <c r="B10" s="51">
         <f>'Base Case'!B10</f>
         <v/>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="51">
         <f>'Base Case'!C10</f>
         <v/>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="51">
         <f>'Base Case'!D10</f>
         <v/>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="51">
         <f>'Base Case'!E10</f>
         <v/>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="51">
         <f>'Base Case'!F10</f>
         <v/>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="52">
         <f>'Base Case'!G10</f>
         <v/>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="53">
         <f>IF(ISERROR(H9*Assumptions!B31),"NA",Assumptions!B31*'Upside Case'!H9)</f>
         <v/>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="53">
         <f>IF(ISERROR(I9*Assumptions!C31),"NA",Assumptions!C31*'Upside Case'!I9)</f>
         <v/>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="53">
         <f>IF(ISERROR(J9*Assumptions!D31),"NA",Assumptions!D31*'Upside Case'!J9)</f>
         <v/>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="53">
         <f>IF(ISERROR(K9*Assumptions!E31),"NA",Assumptions!E31*'Upside Case'!K9)</f>
         <v/>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="54">
         <f>IF(ISERROR(L9*Assumptions!F31),"NA",Assumptions!F31*'Upside Case'!L9)</f>
         <v/>
       </c>
-      <c r="M10" s="101" t="n"/>
-      <c r="N10" s="109">
+      <c r="M10" s="53" t="n"/>
+      <c r="N10" s="51">
         <f>G10</f>
         <v/>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="51">
         <f>'Base Case'!O10</f>
         <v/>
       </c>
-      <c r="P10" s="101">
+      <c r="P10" s="53">
         <f>IF($G$3="NA",F10,F10+N10-O10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="109">
+        <v>53</v>
+      </c>
+      <c r="B11" s="51">
         <f>'Base Case'!B11</f>
         <v/>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="51">
         <f>'Base Case'!C11</f>
         <v/>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="51">
         <f>'Base Case'!D11</f>
         <v/>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="51">
         <f>'Base Case'!E11</f>
         <v/>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="51">
         <f>'Base Case'!F11</f>
         <v/>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="52">
         <f>'Base Case'!G11</f>
         <v/>
       </c>
-      <c r="H11" s="101" t="n"/>
-      <c r="I11" s="101" t="n"/>
-      <c r="J11" s="101" t="n"/>
-      <c r="K11" s="101" t="n"/>
-      <c r="L11" s="102" t="n"/>
-      <c r="M11" s="101" t="n"/>
-      <c r="N11" s="109">
+      <c r="H11" s="53" t="n"/>
+      <c r="I11" s="53" t="n"/>
+      <c r="J11" s="53" t="n"/>
+      <c r="K11" s="53" t="n"/>
+      <c r="L11" s="54" t="n"/>
+      <c r="M11" s="53" t="n"/>
+      <c r="N11" s="51">
         <f>G11</f>
         <v/>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="51">
         <f>'Base Case'!O11</f>
         <v/>
       </c>
-      <c r="P11" s="101">
+      <c r="P11" s="53">
         <f>IF($G$3="NA",F11,F11+N11-O11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="103">
+        <v>54</v>
+      </c>
+      <c r="B12" s="55">
         <f>B9-B10-B11</f>
         <v/>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="55">
         <f>C9-C10-C11</f>
         <v/>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="55">
         <f>D9-D10-D11</f>
         <v/>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="55">
         <f>E9-E10-E11</f>
         <v/>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="55">
         <f>F9-F10-F11</f>
         <v/>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="56">
         <f>G9-G10-G11</f>
         <v/>
       </c>
       <c r="H12" s="57" t="n"/>
-      <c r="I12" s="103" t="n"/>
-      <c r="J12" s="103" t="n"/>
-      <c r="K12" s="103" t="n"/>
-      <c r="L12" s="104" t="n"/>
-      <c r="M12" s="103" t="n"/>
-      <c r="N12" s="103">
+      <c r="I12" s="55" t="n"/>
+      <c r="J12" s="55" t="n"/>
+      <c r="K12" s="55" t="n"/>
+      <c r="L12" s="56" t="n"/>
+      <c r="M12" s="55" t="n"/>
+      <c r="N12" s="55">
         <f>N9-N10-N11</f>
         <v/>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="55">
         <f>O9-O10-O11</f>
         <v/>
       </c>
-      <c r="P12" s="101">
+      <c r="P12" s="53">
         <f>IF($G$3="NA",F12,F12+N12-O12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="101" t="n"/>
-      <c r="C13" s="101" t="n"/>
-      <c r="D13" s="101" t="n"/>
-      <c r="E13" s="101" t="n"/>
-      <c r="F13" s="101" t="n"/>
-      <c r="G13" s="101" t="n"/>
-      <c r="H13" s="101" t="n"/>
-      <c r="I13" s="101" t="n"/>
-      <c r="J13" s="101" t="n"/>
-      <c r="K13" s="101" t="n"/>
-      <c r="L13" s="102" t="n"/>
-      <c r="M13" s="101" t="n"/>
-      <c r="N13" s="101" t="n"/>
-      <c r="O13" s="101" t="n"/>
-      <c r="P13" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
+      <c r="B13" s="53" t="n"/>
+      <c r="C13" s="53" t="n"/>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="53" t="n"/>
+      <c r="F13" s="53" t="n"/>
+      <c r="G13" s="53" t="n"/>
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="53" t="n"/>
+      <c r="J13" s="53" t="n"/>
+      <c r="K13" s="53" t="n"/>
+      <c r="L13" s="54" t="n"/>
+      <c r="M13" s="53" t="n"/>
+      <c r="N13" s="53" t="n"/>
+      <c r="O13" s="53" t="n"/>
+      <c r="P13" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -3913,155 +3847,155 @@
         <f>O3</f>
         <v/>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="109">
+        <v>56</v>
+      </c>
+      <c r="B15" s="51">
         <f>'Base Case'!B15</f>
         <v/>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="51">
         <f>'Base Case'!C15</f>
         <v/>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="51">
         <f>'Base Case'!D15</f>
         <v/>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="51">
         <f>'Base Case'!E15</f>
         <v/>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="51">
         <f>'Base Case'!F15</f>
         <v/>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="52">
         <f>'Base Case'!G15</f>
         <v/>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="53">
         <f>H4*Assumptions!B32</f>
         <v/>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="53">
         <f>I4*Assumptions!C32</f>
         <v/>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="53">
         <f>J4*Assumptions!D32</f>
         <v/>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="53">
         <f>K4*Assumptions!E32</f>
         <v/>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="66">
         <f>L4*Assumptions!F32</f>
         <v/>
       </c>
-      <c r="M15" s="101" t="n"/>
-      <c r="N15" s="109">
+      <c r="M15" s="53" t="n"/>
+      <c r="N15" s="51">
         <f>G15</f>
         <v/>
       </c>
-      <c r="O15" s="109">
+      <c r="O15" s="51">
         <f>'Base Case'!O15</f>
         <v/>
       </c>
-      <c r="P15" s="101">
+      <c r="P15" s="53">
         <f>IF($G$3="NA",F15,F15+N15-O15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="109">
+        <v>57</v>
+      </c>
+      <c r="B16" s="51">
         <f>'Base Case'!B16</f>
         <v/>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="51">
         <f>'Base Case'!C16</f>
         <v/>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="51">
         <f>'Base Case'!D16</f>
         <v/>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="51">
         <f>'Base Case'!E16</f>
         <v/>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="51">
         <f>'Base Case'!F16</f>
         <v/>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="52">
         <f>'Base Case'!G16</f>
         <v/>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="53">
         <f>Assumptions!B33*'Upside Case'!H4</f>
         <v/>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="53">
         <f>Assumptions!C33*'Upside Case'!I4</f>
         <v/>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="53">
         <f>Assumptions!D33*'Upside Case'!J4</f>
         <v/>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="53">
         <f>Assumptions!E33*'Upside Case'!K4</f>
         <v/>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="54">
         <f>Assumptions!F33*'Upside Case'!L4</f>
         <v/>
       </c>
-      <c r="M16" s="101" t="n"/>
-      <c r="N16" s="109">
+      <c r="M16" s="53" t="n"/>
+      <c r="N16" s="51">
         <f>G16</f>
         <v/>
       </c>
-      <c r="O16" s="109">
+      <c r="O16" s="51">
         <f>'Base Case'!O16</f>
         <v/>
       </c>
-      <c r="P16" s="101">
+      <c r="P16" s="53">
         <f>IF($G$3="NA",F16,F16+N16-O16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="101" t="n"/>
-      <c r="C17" s="101" t="n"/>
-      <c r="D17" s="101" t="n"/>
-      <c r="E17" s="101" t="n"/>
-      <c r="F17" s="101" t="n"/>
-      <c r="G17" s="101" t="n"/>
-      <c r="H17" s="101" t="n"/>
-      <c r="I17" s="101" t="n"/>
-      <c r="J17" s="101" t="n"/>
-      <c r="K17" s="101" t="n"/>
-      <c r="L17" s="101" t="n"/>
-      <c r="M17" s="101" t="n"/>
-      <c r="N17" s="101" t="n"/>
-      <c r="O17" s="101" t="n"/>
-      <c r="P17" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
+      <c r="B17" s="53" t="n"/>
+      <c r="C17" s="53" t="n"/>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="53" t="n"/>
+      <c r="G17" s="53" t="n"/>
+      <c r="H17" s="53" t="n"/>
+      <c r="I17" s="53" t="n"/>
+      <c r="J17" s="53" t="n"/>
+      <c r="K17" s="53" t="n"/>
+      <c r="L17" s="53" t="n"/>
+      <c r="M17" s="53" t="n"/>
+      <c r="N17" s="53" t="n"/>
+      <c r="O17" s="53" t="n"/>
+      <c r="P17" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -4113,571 +4047,571 @@
         <v/>
       </c>
       <c r="O18" s="60" t="n"/>
-      <c r="P18" s="105">
+      <c r="P18" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="109">
+        <v>59</v>
+      </c>
+      <c r="B19" s="51">
         <f>'Base Case'!B19</f>
         <v/>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="51">
         <f>'Base Case'!C19</f>
         <v/>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="51">
         <f>'Base Case'!D19</f>
         <v/>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="51">
         <f>'Base Case'!E19</f>
         <v/>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="51">
         <f>'Base Case'!F19</f>
         <v/>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="52">
         <f>'Base Case'!G19</f>
         <v/>
       </c>
-      <c r="H19" s="101" t="n"/>
-      <c r="I19" s="101" t="n"/>
-      <c r="J19" s="101" t="n"/>
-      <c r="K19" s="101" t="n"/>
-      <c r="L19" s="102" t="n"/>
-      <c r="M19" s="101" t="n"/>
-      <c r="N19" s="109">
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="53" t="n"/>
+      <c r="J19" s="53" t="n"/>
+      <c r="K19" s="53" t="n"/>
+      <c r="L19" s="54" t="n"/>
+      <c r="M19" s="53" t="n"/>
+      <c r="N19" s="51">
         <f>G19</f>
         <v/>
       </c>
-      <c r="O19" s="101" t="n"/>
-      <c r="P19" s="101">
+      <c r="O19" s="53" t="n"/>
+      <c r="P19" s="53">
         <f>IF($G$3="NA",F19,F19+N19-O19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="109">
+        <v>60</v>
+      </c>
+      <c r="B20" s="51">
         <f>'Base Case'!B20</f>
         <v/>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="51">
         <f>'Base Case'!C20</f>
         <v/>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="51">
         <f>'Base Case'!D20</f>
         <v/>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="51">
         <f>'Base Case'!E20</f>
         <v/>
       </c>
-      <c r="F20" s="109">
+      <c r="F20" s="51">
         <f>'Base Case'!F20</f>
         <v/>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="52">
         <f>'Base Case'!G20</f>
         <v/>
       </c>
-      <c r="H20" s="101" t="n"/>
-      <c r="I20" s="101" t="n"/>
-      <c r="J20" s="101" t="n"/>
-      <c r="K20" s="101" t="n"/>
-      <c r="L20" s="102" t="n"/>
-      <c r="M20" s="101" t="n"/>
-      <c r="N20" s="109">
+      <c r="H20" s="53" t="n"/>
+      <c r="I20" s="53" t="n"/>
+      <c r="J20" s="53" t="n"/>
+      <c r="K20" s="53" t="n"/>
+      <c r="L20" s="54" t="n"/>
+      <c r="M20" s="53" t="n"/>
+      <c r="N20" s="51">
         <f>G20</f>
         <v/>
       </c>
-      <c r="O20" s="101" t="n"/>
-      <c r="P20" s="101">
+      <c r="O20" s="53" t="n"/>
+      <c r="P20" s="53">
         <f>IF($G$3="NA",F20,F20+N20-O20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="109">
+        <v>61</v>
+      </c>
+      <c r="B21" s="51">
         <f>'Base Case'!B21</f>
         <v/>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="51">
         <f>'Base Case'!C21</f>
         <v/>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="51">
         <f>'Base Case'!D21</f>
         <v/>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="51">
         <f>'Base Case'!E21</f>
         <v/>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="51">
         <f>'Base Case'!F21</f>
         <v/>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="52">
         <f>'Base Case'!G21</f>
         <v/>
       </c>
-      <c r="H21" s="101" t="n"/>
-      <c r="I21" s="101" t="n"/>
-      <c r="J21" s="101" t="n"/>
-      <c r="K21" s="101" t="n"/>
-      <c r="L21" s="102" t="n"/>
-      <c r="M21" s="101" t="n"/>
-      <c r="N21" s="109">
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="53" t="n"/>
+      <c r="J21" s="53" t="n"/>
+      <c r="K21" s="53" t="n"/>
+      <c r="L21" s="54" t="n"/>
+      <c r="M21" s="53" t="n"/>
+      <c r="N21" s="51">
         <f>G21</f>
         <v/>
       </c>
-      <c r="O21" s="101" t="n"/>
-      <c r="P21" s="101">
+      <c r="O21" s="53" t="n"/>
+      <c r="P21" s="53">
         <f>IF($G$3="NA",F21,F21+N21-O21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="109">
+        <v>62</v>
+      </c>
+      <c r="B22" s="51">
         <f>'Base Case'!B22</f>
         <v/>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="51">
         <f>'Base Case'!C22</f>
         <v/>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="51">
         <f>'Base Case'!D22</f>
         <v/>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="51">
         <f>'Base Case'!E22</f>
         <v/>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="51">
         <f>'Base Case'!F22</f>
         <v/>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="52">
         <f>'Base Case'!G22</f>
         <v/>
       </c>
-      <c r="H22" s="101" t="n"/>
-      <c r="I22" s="101" t="n"/>
-      <c r="J22" s="101" t="n"/>
-      <c r="K22" s="101" t="n"/>
-      <c r="L22" s="102" t="n"/>
-      <c r="M22" s="101" t="n"/>
-      <c r="N22" s="109">
+      <c r="H22" s="53" t="n"/>
+      <c r="I22" s="53" t="n"/>
+      <c r="J22" s="53" t="n"/>
+      <c r="K22" s="53" t="n"/>
+      <c r="L22" s="54" t="n"/>
+      <c r="M22" s="53" t="n"/>
+      <c r="N22" s="51">
         <f>G22</f>
         <v/>
       </c>
-      <c r="O22" s="101" t="n"/>
-      <c r="P22" s="101">
+      <c r="O22" s="53" t="n"/>
+      <c r="P22" s="53">
         <f>IF($G$3="NA",F22,F22+N22-O22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="109">
+        <v>63</v>
+      </c>
+      <c r="B23" s="51">
         <f>'Base Case'!B23</f>
         <v/>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="51">
         <f>'Base Case'!C23</f>
         <v/>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="51">
         <f>'Base Case'!D23</f>
         <v/>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="51">
         <f>'Base Case'!E23</f>
         <v/>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="51">
         <f>'Base Case'!F23</f>
         <v/>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="52">
         <f>'Base Case'!G23</f>
         <v/>
       </c>
-      <c r="H23" s="101" t="n"/>
-      <c r="I23" s="101" t="n"/>
-      <c r="J23" s="101" t="n"/>
-      <c r="K23" s="101" t="n"/>
-      <c r="L23" s="102" t="n"/>
-      <c r="M23" s="101" t="n"/>
-      <c r="N23" s="109">
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="53" t="n"/>
+      <c r="J23" s="53" t="n"/>
+      <c r="K23" s="53" t="n"/>
+      <c r="L23" s="54" t="n"/>
+      <c r="M23" s="53" t="n"/>
+      <c r="N23" s="51">
         <f>G23</f>
         <v/>
       </c>
-      <c r="O23" s="101" t="n"/>
-      <c r="P23" s="101">
+      <c r="O23" s="53" t="n"/>
+      <c r="P23" s="53">
         <f>IF($G$3="NA",F23,F23+N23-O23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="109">
+        <v>64</v>
+      </c>
+      <c r="B24" s="51">
         <f>'Base Case'!B24</f>
         <v/>
       </c>
-      <c r="C24" s="109">
+      <c r="C24" s="51">
         <f>'Base Case'!C24</f>
         <v/>
       </c>
-      <c r="D24" s="109">
+      <c r="D24" s="51">
         <f>'Base Case'!D24</f>
         <v/>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="51">
         <f>'Base Case'!E24</f>
         <v/>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="51">
         <f>'Base Case'!F24</f>
         <v/>
       </c>
-      <c r="G24" s="110">
+      <c r="G24" s="52">
         <f>'Base Case'!G24</f>
         <v/>
       </c>
-      <c r="H24" s="101" t="n"/>
-      <c r="I24" s="101" t="n"/>
-      <c r="J24" s="101" t="n"/>
-      <c r="K24" s="101" t="n"/>
-      <c r="L24" s="102" t="n"/>
-      <c r="M24" s="101" t="n"/>
-      <c r="N24" s="109">
+      <c r="H24" s="53" t="n"/>
+      <c r="I24" s="53" t="n"/>
+      <c r="J24" s="53" t="n"/>
+      <c r="K24" s="53" t="n"/>
+      <c r="L24" s="54" t="n"/>
+      <c r="M24" s="53" t="n"/>
+      <c r="N24" s="51">
         <f>G24</f>
         <v/>
       </c>
-      <c r="O24" s="101" t="n"/>
-      <c r="P24" s="101">
+      <c r="O24" s="53" t="n"/>
+      <c r="P24" s="53">
         <f>IF($G$3="NA",F24,F24+N24-O24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="109">
+        <v>65</v>
+      </c>
+      <c r="B25" s="51">
         <f>'Base Case'!B25</f>
         <v/>
       </c>
-      <c r="C25" s="109">
+      <c r="C25" s="51">
         <f>'Base Case'!C25</f>
         <v/>
       </c>
-      <c r="D25" s="109">
+      <c r="D25" s="51">
         <f>'Base Case'!D25</f>
         <v/>
       </c>
-      <c r="E25" s="109">
+      <c r="E25" s="51">
         <f>'Base Case'!E25</f>
         <v/>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="51">
         <f>'Base Case'!F25</f>
         <v/>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="52">
         <f>'Base Case'!G25</f>
         <v/>
       </c>
-      <c r="H25" s="101" t="n"/>
-      <c r="I25" s="101" t="n"/>
-      <c r="J25" s="101" t="n"/>
-      <c r="K25" s="101" t="n"/>
-      <c r="L25" s="102" t="n"/>
-      <c r="M25" s="101" t="n"/>
-      <c r="N25" s="109" t="n"/>
-      <c r="O25" s="101" t="n"/>
-      <c r="P25" s="101">
+      <c r="H25" s="53" t="n"/>
+      <c r="I25" s="53" t="n"/>
+      <c r="J25" s="53" t="n"/>
+      <c r="K25" s="53" t="n"/>
+      <c r="L25" s="54" t="n"/>
+      <c r="M25" s="53" t="n"/>
+      <c r="N25" s="51" t="n"/>
+      <c r="O25" s="53" t="n"/>
+      <c r="P25" s="53">
         <f>IF($G$3="NA",F25,F25+N25-O25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="109">
+        <v>66</v>
+      </c>
+      <c r="B26" s="51">
         <f>'Base Case'!B26</f>
         <v/>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="51">
         <f>'Base Case'!C26</f>
         <v/>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="51">
         <f>'Base Case'!D26</f>
         <v/>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="51">
         <f>'Base Case'!E26</f>
         <v/>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="51">
         <f>'Base Case'!F26</f>
         <v/>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="52">
         <f>'Base Case'!G26</f>
         <v/>
       </c>
-      <c r="H26" s="101" t="n"/>
-      <c r="I26" s="101" t="n"/>
-      <c r="J26" s="101" t="n"/>
-      <c r="K26" s="101" t="n"/>
-      <c r="L26" s="102" t="n"/>
-      <c r="M26" s="101" t="n"/>
-      <c r="N26" s="109">
+      <c r="H26" s="53" t="n"/>
+      <c r="I26" s="53" t="n"/>
+      <c r="J26" s="53" t="n"/>
+      <c r="K26" s="53" t="n"/>
+      <c r="L26" s="54" t="n"/>
+      <c r="M26" s="53" t="n"/>
+      <c r="N26" s="51">
         <f>G26</f>
         <v/>
       </c>
-      <c r="O26" s="101" t="n"/>
-      <c r="P26" s="101">
+      <c r="O26" s="53" t="n"/>
+      <c r="P26" s="53">
         <f>IF($G$3="NA",F26,F26+N26-O26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="109">
+        <v>67</v>
+      </c>
+      <c r="B27" s="51">
         <f>'Base Case'!B27</f>
         <v/>
       </c>
-      <c r="C27" s="109">
+      <c r="C27" s="51">
         <f>'Base Case'!C27</f>
         <v/>
       </c>
-      <c r="D27" s="109">
+      <c r="D27" s="51">
         <f>'Base Case'!D27</f>
         <v/>
       </c>
-      <c r="E27" s="109">
+      <c r="E27" s="51">
         <f>'Base Case'!E27</f>
         <v/>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="51">
         <f>'Base Case'!F27</f>
         <v/>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="52">
         <f>'Base Case'!G27</f>
         <v/>
       </c>
-      <c r="H27" s="101" t="n"/>
-      <c r="I27" s="101" t="n"/>
-      <c r="J27" s="101" t="n"/>
-      <c r="K27" s="101" t="n"/>
-      <c r="L27" s="102" t="n"/>
-      <c r="M27" s="101" t="n"/>
-      <c r="N27" s="109">
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="53" t="n"/>
+      <c r="J27" s="53" t="n"/>
+      <c r="K27" s="53" t="n"/>
+      <c r="L27" s="54" t="n"/>
+      <c r="M27" s="53" t="n"/>
+      <c r="N27" s="51">
         <f>G27</f>
         <v/>
       </c>
-      <c r="O27" s="101" t="n"/>
-      <c r="P27" s="101">
+      <c r="O27" s="53" t="n"/>
+      <c r="P27" s="53">
         <f>IF($G$3="NA",F27,F27+N27-O27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="101">
+        <v>68</v>
+      </c>
+      <c r="B28" s="53">
         <f>B22-B26-B27</f>
         <v/>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="53">
         <f>C22-C26-C27</f>
         <v/>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="53">
         <f>D22-D26-D27</f>
         <v/>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="53">
         <f>E22-E26-E27</f>
         <v/>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="53">
         <f>F22-F26-F27</f>
         <v/>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="54">
         <f>G22-G26-G27</f>
         <v/>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="53">
         <f>H22-H26-H27</f>
         <v/>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="53">
         <f>I22-I26-I27</f>
         <v/>
       </c>
-      <c r="J28" s="101">
+      <c r="J28" s="53">
         <f>J22-J26-J27</f>
         <v/>
       </c>
-      <c r="K28" s="101">
+      <c r="K28" s="53">
         <f>K22-K26-K27</f>
         <v/>
       </c>
-      <c r="L28" s="102">
+      <c r="L28" s="54">
         <f>L22-L26-L27</f>
         <v/>
       </c>
-      <c r="M28" s="101" t="n"/>
-      <c r="N28" s="101">
+      <c r="M28" s="53" t="n"/>
+      <c r="N28" s="53">
         <f>N22-N26-N27</f>
         <v/>
       </c>
-      <c r="O28" s="101" t="n"/>
-      <c r="P28" s="101">
+      <c r="O28" s="53" t="n"/>
+      <c r="P28" s="53">
         <f>IF($G$3="NA",F28,F28+N28-O28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="103">
+        <v>69</v>
+      </c>
+      <c r="B29" s="55">
         <f>B21-B24-B20+B23</f>
         <v/>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="55">
         <f>C21-C24-C20+C23</f>
         <v/>
       </c>
-      <c r="D29" s="103">
+      <c r="D29" s="55">
         <f>D21-D24-D20+D23</f>
         <v/>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="55">
         <f>E21-E24-E20+E23</f>
         <v/>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="55">
         <f>F21-F24-F20+F23</f>
         <v/>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="56">
         <f>G21-G24-G20+G23</f>
         <v/>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="55">
         <f>H4*Assumptions!B34</f>
         <v/>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="55">
         <f>I4*Assumptions!C34</f>
         <v/>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="55">
         <f>J4*Assumptions!D34</f>
         <v/>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="55">
         <f>K4*Assumptions!E34</f>
         <v/>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="56">
         <f>L4*Assumptions!F34</f>
         <v/>
       </c>
-      <c r="M29" s="103" t="n"/>
-      <c r="N29" s="103">
+      <c r="M29" s="55" t="n"/>
+      <c r="N29" s="55">
         <f>N21-N24-N20+N23</f>
         <v/>
       </c>
-      <c r="O29" s="103" t="n"/>
-      <c r="P29" s="103">
+      <c r="O29" s="55" t="n"/>
+      <c r="P29" s="55">
         <f>IF($G$3="NA",F29,F29+N29-O29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="107">
+        <v>70</v>
+      </c>
+      <c r="B30" s="62">
         <f>'Base Case'!B30</f>
         <v/>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="62">
         <f>C29-B29</f>
         <v/>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="62">
         <f>D29-C29</f>
         <v/>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="62">
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="62">
         <f>F29-E29</f>
         <v/>
       </c>
       <c r="G30" s="63" t="n"/>
-      <c r="H30" s="107">
+      <c r="H30" s="62">
         <f>H29-F29</f>
         <v/>
       </c>
-      <c r="I30" s="107">
+      <c r="I30" s="62">
         <f>I29-H29</f>
         <v/>
       </c>
-      <c r="J30" s="107">
+      <c r="J30" s="62">
         <f>J29-I29</f>
         <v/>
       </c>
-      <c r="K30" s="107">
+      <c r="K30" s="62">
         <f>K29-J29</f>
         <v/>
       </c>
-      <c r="L30" s="108">
+      <c r="L30" s="64">
         <f>L29-K29</f>
         <v/>
       </c>
       <c r="M30" s="65" t="n"/>
       <c r="N30" s="65" t="n"/>
       <c r="O30" s="65" t="n"/>
-      <c r="P30" s="103">
+      <c r="P30" s="55">
         <f>IF($G$3="NA",F30,F30+N30-O30)</f>
         <v/>
       </c>
@@ -4733,7 +4667,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4745,28 +4678,28 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.28515625"/>
-    <col customWidth="1" max="6" min="2" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.140625"/>
-    <col customWidth="1" max="13" min="8" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.140625"/>
-    <col customWidth="1" max="16" min="15" style="21" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="49.33203125"/>
+    <col customWidth="1" max="6" min="2" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.1640625"/>
+    <col customWidth="1" max="13" min="8" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="21" width="12.1640625"/>
+    <col customWidth="1" max="16" min="15" style="21" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="45" t="n"/>
       <c r="D2" s="45" t="n"/>
@@ -4774,16 +4707,16 @@
       <c r="F2" s="45" t="n"/>
       <c r="G2" s="45" t="n"/>
       <c r="H2" s="45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="45" t="n"/>
       <c r="J2" s="45" t="n"/>
       <c r="K2" s="45" t="n"/>
       <c r="L2" s="45" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:17" thickBot="1">
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:17" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="58">
         <f>YEAR('Title Page'!B11)-4</f>
@@ -4839,512 +4772,512 @@
         <v/>
       </c>
       <c r="P3" s="58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="109">
+        <v>46</v>
+      </c>
+      <c r="B4" s="51">
         <f>'Base Case'!B4</f>
         <v/>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="51">
         <f>'Base Case'!C4</f>
         <v/>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="51">
         <f>'Base Case'!D4</f>
         <v/>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="51">
         <f>'Base Case'!E4</f>
         <v/>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="51">
         <f>'Base Case'!F4</f>
         <v/>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="52">
         <f>'Base Case'!G4</f>
         <v/>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="53">
         <f>F4*(1+Assumptions!B38)</f>
         <v/>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="53">
         <f>H4*(1+Assumptions!C38)</f>
         <v/>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="53">
         <f>I4*(1+Assumptions!D38)</f>
         <v/>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="53">
         <f>J4*(1+Assumptions!E38)</f>
         <v/>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="66">
         <f>K4*(1+Assumptions!F38)</f>
         <v/>
       </c>
-      <c r="M4" s="101" t="n"/>
-      <c r="N4" s="109">
+      <c r="M4" s="53" t="n"/>
+      <c r="N4" s="51">
         <f>G4</f>
         <v/>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="51">
         <f>'Base Case'!O4</f>
         <v/>
       </c>
-      <c r="P4" s="101">
+      <c r="P4" s="53">
         <f>IF($G$3="NA",F4,F4+N4-O4)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="109">
+        <v>47</v>
+      </c>
+      <c r="B5" s="51">
         <f>'Base Case'!B5</f>
         <v/>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="51">
         <f>'Base Case'!C5</f>
         <v/>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="51">
         <f>'Base Case'!D5</f>
         <v/>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="51">
         <f>'Base Case'!E5</f>
         <v/>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="51">
         <f>'Base Case'!F5</f>
         <v/>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="52">
         <f>'Base Case'!G5</f>
         <v/>
       </c>
-      <c r="H5" s="101" t="n"/>
-      <c r="I5" s="101" t="n"/>
-      <c r="J5" s="101" t="n"/>
-      <c r="K5" s="101" t="n"/>
-      <c r="L5" s="102" t="n"/>
-      <c r="M5" s="101" t="n"/>
-      <c r="N5" s="109">
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="53" t="n"/>
+      <c r="J5" s="53" t="n"/>
+      <c r="K5" s="53" t="n"/>
+      <c r="L5" s="54" t="n"/>
+      <c r="M5" s="53" t="n"/>
+      <c r="N5" s="51">
         <f>G5</f>
         <v/>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="51">
         <f>'Base Case'!O5</f>
         <v/>
       </c>
-      <c r="P5" s="101">
+      <c r="P5" s="53">
         <f>IF($G$3="NA",F5,F5+N5-O5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="103">
+        <v>48</v>
+      </c>
+      <c r="B6" s="55">
         <f>B4-B5</f>
         <v/>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="55">
         <f>C4-C5</f>
         <v/>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="55">
         <f>D4-D5</f>
         <v/>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="55">
         <f>E4-E5</f>
         <v/>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="55">
         <f>F4-F5</f>
         <v/>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="56">
         <f>G4-G5</f>
         <v/>
       </c>
-      <c r="H6" s="103" t="n"/>
-      <c r="I6" s="103" t="n"/>
-      <c r="J6" s="103" t="n"/>
-      <c r="K6" s="103" t="n"/>
-      <c r="L6" s="104" t="n"/>
-      <c r="M6" s="103" t="n"/>
-      <c r="N6" s="103">
+      <c r="H6" s="55" t="n"/>
+      <c r="I6" s="55" t="n"/>
+      <c r="J6" s="55" t="n"/>
+      <c r="K6" s="55" t="n"/>
+      <c r="L6" s="56" t="n"/>
+      <c r="M6" s="55" t="n"/>
+      <c r="N6" s="55">
         <f>N4-N5</f>
         <v/>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="55">
         <f>O4-O5</f>
         <v/>
       </c>
-      <c r="P6" s="101">
+      <c r="P6" s="53">
         <f>IF($G$3="NA",F6,F6+N6-O6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="109">
+        <v>49</v>
+      </c>
+      <c r="B7" s="51">
         <f>'Base Case'!B7</f>
         <v/>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="51">
         <f>'Base Case'!C7</f>
         <v/>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="51">
         <f>'Base Case'!D7</f>
         <v/>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="51">
         <f>'Base Case'!E7</f>
         <v/>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="51">
         <f>'Base Case'!F7</f>
         <v/>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="52">
         <f>'Base Case'!G7</f>
         <v/>
       </c>
-      <c r="H7" s="101" t="n"/>
-      <c r="I7" s="101" t="n"/>
-      <c r="J7" s="101" t="n"/>
-      <c r="K7" s="101" t="n"/>
-      <c r="L7" s="102" t="n"/>
-      <c r="M7" s="101" t="n"/>
-      <c r="N7" s="109">
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="53" t="n"/>
+      <c r="J7" s="53" t="n"/>
+      <c r="K7" s="53" t="n"/>
+      <c r="L7" s="54" t="n"/>
+      <c r="M7" s="53" t="n"/>
+      <c r="N7" s="51">
         <f>G7</f>
         <v/>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="51">
         <f>'Base Case'!O7</f>
         <v/>
       </c>
-      <c r="P7" s="101">
+      <c r="P7" s="53">
         <f>IF($G$3="NA",F7,F7+N7-O7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="103">
+        <v>50</v>
+      </c>
+      <c r="B8" s="55">
         <f>B6-B7</f>
         <v/>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="55">
         <f>C6-C7</f>
         <v/>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="55">
         <f>D6-D7</f>
         <v/>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="55">
         <f>E6-E7</f>
         <v/>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="55">
         <f>F6-F7</f>
         <v/>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="56">
         <f>G6-G7</f>
         <v/>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="55">
         <f>H4*Assumptions!B39</f>
         <v/>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="55">
         <f>I4*Assumptions!C39</f>
         <v/>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="55">
         <f>J4*Assumptions!D39</f>
         <v/>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="55">
         <f>K4*Assumptions!E39</f>
         <v/>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="56">
         <f>L4*Assumptions!F39</f>
         <v/>
       </c>
-      <c r="M8" s="103" t="n"/>
-      <c r="N8" s="103">
+      <c r="M8" s="55" t="n"/>
+      <c r="N8" s="55">
         <f>N6-N7</f>
         <v/>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="55">
         <f>O6-O7</f>
         <v/>
       </c>
-      <c r="P8" s="101">
+      <c r="P8" s="53">
         <f>IF($G$3="NA",F8,F8+N8-O8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="109">
+        <v>51</v>
+      </c>
+      <c r="B9" s="51">
         <f>'Base Case'!B9</f>
         <v/>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="51">
         <f>'Base Case'!C9</f>
         <v/>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="51">
         <f>'Base Case'!D9</f>
         <v/>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="51">
         <f>'Base Case'!E9</f>
         <v/>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="51">
         <f>'Base Case'!F9</f>
         <v/>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="52">
         <f>'Base Case'!G9</f>
         <v/>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="53">
         <f>IF(ISERROR(F9*(H8/F8)),"NA",F9*(H8/F8))</f>
         <v/>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="53">
         <f>IF(ISERROR(H9*(I8/H8)),"NA",H9*(I8/H8))</f>
         <v/>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="53">
         <f>IF(ISERROR(I9*(J8/I8)),"NA",I9*(J8/I8))</f>
         <v/>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="53">
         <f>IF(ISERROR(J9*(K8/J8)),"NA",J9*(K8/J8))</f>
         <v/>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="54">
         <f>IF(ISERROR(K9*(L8/K8)),"NA",K9*(L8/K8))</f>
         <v/>
       </c>
-      <c r="M9" s="101" t="n"/>
-      <c r="N9" s="109">
+      <c r="M9" s="53" t="n"/>
+      <c r="N9" s="51">
         <f>G9</f>
         <v/>
       </c>
-      <c r="O9" s="109">
+      <c r="O9" s="51">
         <f>'Base Case'!O9</f>
         <v/>
       </c>
-      <c r="P9" s="101">
+      <c r="P9" s="53">
         <f>IF($G$3="NA",F9,F9+N9-O9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="109">
+        <v>52</v>
+      </c>
+      <c r="B10" s="51">
         <f>'Base Case'!B10</f>
         <v/>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="51">
         <f>'Base Case'!C10</f>
         <v/>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="51">
         <f>'Base Case'!D10</f>
         <v/>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="51">
         <f>'Base Case'!E10</f>
         <v/>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="51">
         <f>'Base Case'!F10</f>
         <v/>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="52">
         <f>'Base Case'!G10</f>
         <v/>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="53">
         <f>IF(ISERROR(H9*Assumptions!B40),"NA",Assumptions!B40*'Downside Case'!H9)</f>
         <v/>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="53">
         <f>IF(ISERROR(I9*Assumptions!C40),"NA",Assumptions!C40*'Downside Case'!I9)</f>
         <v/>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="53">
         <f>IF(ISERROR(J9*Assumptions!D40),"NA",Assumptions!D40*'Downside Case'!J9)</f>
         <v/>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="53">
         <f>IF(ISERROR(K9*Assumptions!E40),"NA",Assumptions!E40*'Downside Case'!K9)</f>
         <v/>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="54">
         <f>IF(ISERROR(L9*Assumptions!F40),"NA",Assumptions!F40*'Downside Case'!L9)</f>
         <v/>
       </c>
-      <c r="M10" s="101" t="n"/>
-      <c r="N10" s="109">
+      <c r="M10" s="53" t="n"/>
+      <c r="N10" s="51">
         <f>G10</f>
         <v/>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="51">
         <f>'Base Case'!O10</f>
         <v/>
       </c>
-      <c r="P10" s="101">
+      <c r="P10" s="53">
         <f>IF($G$3="NA",F10,F10+N10-O10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="109">
+        <v>53</v>
+      </c>
+      <c r="B11" s="51">
         <f>'Base Case'!B11</f>
         <v/>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="51">
         <f>'Base Case'!C11</f>
         <v/>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="51">
         <f>'Base Case'!D11</f>
         <v/>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="51">
         <f>'Base Case'!E11</f>
         <v/>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="51">
         <f>'Base Case'!F11</f>
         <v/>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="52">
         <f>'Base Case'!G11</f>
         <v/>
       </c>
-      <c r="H11" s="101" t="n"/>
-      <c r="I11" s="101" t="n"/>
-      <c r="J11" s="101" t="n"/>
-      <c r="K11" s="101" t="n"/>
-      <c r="L11" s="102" t="n"/>
-      <c r="M11" s="101" t="n"/>
-      <c r="N11" s="109">
+      <c r="H11" s="53" t="n"/>
+      <c r="I11" s="53" t="n"/>
+      <c r="J11" s="53" t="n"/>
+      <c r="K11" s="53" t="n"/>
+      <c r="L11" s="54" t="n"/>
+      <c r="M11" s="53" t="n"/>
+      <c r="N11" s="51">
         <f>G11</f>
         <v/>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="51">
         <f>'Base Case'!O11</f>
         <v/>
       </c>
-      <c r="P11" s="101">
+      <c r="P11" s="53">
         <f>IF($G$3="NA",F11,F11+N11-O11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="103">
+        <v>54</v>
+      </c>
+      <c r="B12" s="55">
         <f>B9-B10-B11</f>
         <v/>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="55">
         <f>C9-C10-C11</f>
         <v/>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="55">
         <f>D9-D10-D11</f>
         <v/>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="55">
         <f>E9-E10-E11</f>
         <v/>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="55">
         <f>F9-F10-F11</f>
         <v/>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="56">
         <f>G9-G10-G11</f>
         <v/>
       </c>
       <c r="H12" s="57" t="n"/>
-      <c r="I12" s="103" t="n"/>
-      <c r="J12" s="103" t="n"/>
-      <c r="K12" s="103" t="n"/>
-      <c r="L12" s="104" t="n"/>
-      <c r="M12" s="103" t="n"/>
-      <c r="N12" s="103">
+      <c r="I12" s="55" t="n"/>
+      <c r="J12" s="55" t="n"/>
+      <c r="K12" s="55" t="n"/>
+      <c r="L12" s="56" t="n"/>
+      <c r="M12" s="55" t="n"/>
+      <c r="N12" s="55">
         <f>N9-N10-N11</f>
         <v/>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="55">
         <f>O9-O10-O11</f>
         <v/>
       </c>
-      <c r="P12" s="101">
+      <c r="P12" s="53">
         <f>IF($G$3="NA",F12,F12+N12-O12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="101" t="n"/>
-      <c r="C13" s="101" t="n"/>
-      <c r="D13" s="101" t="n"/>
-      <c r="E13" s="101" t="n"/>
-      <c r="F13" s="101" t="n"/>
-      <c r="G13" s="101" t="n"/>
-      <c r="H13" s="101" t="n"/>
-      <c r="I13" s="101" t="n"/>
-      <c r="J13" s="101" t="n"/>
-      <c r="K13" s="101" t="n"/>
-      <c r="L13" s="102" t="n"/>
-      <c r="M13" s="101" t="n"/>
-      <c r="N13" s="101" t="n"/>
-      <c r="O13" s="101" t="n"/>
-      <c r="P13" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="21" spans="1:17" thickBot="1">
+      <c r="B13" s="53" t="n"/>
+      <c r="C13" s="53" t="n"/>
+      <c r="D13" s="53" t="n"/>
+      <c r="E13" s="53" t="n"/>
+      <c r="F13" s="53" t="n"/>
+      <c r="G13" s="53" t="n"/>
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="53" t="n"/>
+      <c r="J13" s="53" t="n"/>
+      <c r="K13" s="53" t="n"/>
+      <c r="L13" s="54" t="n"/>
+      <c r="M13" s="53" t="n"/>
+      <c r="N13" s="53" t="n"/>
+      <c r="O13" s="53" t="n"/>
+      <c r="P13" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="21" spans="1:17" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="58">
         <f>B3</f>
@@ -5399,155 +5332,155 @@
         <f>O3</f>
         <v/>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="109">
+        <v>56</v>
+      </c>
+      <c r="B15" s="51">
         <f>'Base Case'!B15</f>
         <v/>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="51">
         <f>'Base Case'!C15</f>
         <v/>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="51">
         <f>'Base Case'!D15</f>
         <v/>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="51">
         <f>'Base Case'!E15</f>
         <v/>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="51">
         <f>'Base Case'!F15</f>
         <v/>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="52">
         <f>'Base Case'!G15</f>
         <v/>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="53">
         <f>H4*Assumptions!B41</f>
         <v/>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="53">
         <f>I4*Assumptions!C41</f>
         <v/>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="53">
         <f>J4*Assumptions!D41</f>
         <v/>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="53">
         <f>K4*Assumptions!E41</f>
         <v/>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="66">
         <f>L4*Assumptions!F41</f>
         <v/>
       </c>
-      <c r="M15" s="101" t="n"/>
-      <c r="N15" s="109">
+      <c r="M15" s="53" t="n"/>
+      <c r="N15" s="51">
         <f>G15</f>
         <v/>
       </c>
-      <c r="O15" s="109">
+      <c r="O15" s="51">
         <f>'Base Case'!O15</f>
         <v/>
       </c>
-      <c r="P15" s="101">
+      <c r="P15" s="53">
         <f>IF($G$3="NA",F15,F15+N15-O15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="109">
+        <v>57</v>
+      </c>
+      <c r="B16" s="51">
         <f>'Base Case'!B16</f>
         <v/>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="51">
         <f>'Base Case'!C16</f>
         <v/>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="51">
         <f>'Base Case'!D16</f>
         <v/>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="51">
         <f>'Base Case'!E16</f>
         <v/>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="51">
         <f>'Base Case'!F16</f>
         <v/>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="52">
         <f>'Base Case'!G16</f>
         <v/>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="53">
         <f>Assumptions!B42*'Downside Case'!H4</f>
         <v/>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="53">
         <f>Assumptions!C42*'Downside Case'!I4</f>
         <v/>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="53">
         <f>Assumptions!D42*'Downside Case'!J4</f>
         <v/>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="53">
         <f>Assumptions!E42*'Downside Case'!K4</f>
         <v/>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="54">
         <f>Assumptions!F42*'Downside Case'!L4</f>
         <v/>
       </c>
-      <c r="M16" s="101" t="n"/>
-      <c r="N16" s="109">
+      <c r="M16" s="53" t="n"/>
+      <c r="N16" s="51">
         <f>G16</f>
         <v/>
       </c>
-      <c r="O16" s="109">
+      <c r="O16" s="51">
         <f>'Base Case'!O16</f>
         <v/>
       </c>
-      <c r="P16" s="101">
+      <c r="P16" s="53">
         <f>IF($G$3="NA",F16,F16+N16-O16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="101" t="n"/>
-      <c r="C17" s="101" t="n"/>
-      <c r="D17" s="101" t="n"/>
-      <c r="E17" s="101" t="n"/>
-      <c r="F17" s="101" t="n"/>
-      <c r="G17" s="101" t="n"/>
-      <c r="H17" s="101" t="n"/>
-      <c r="I17" s="101" t="n"/>
-      <c r="J17" s="101" t="n"/>
-      <c r="K17" s="101" t="n"/>
-      <c r="L17" s="101" t="n"/>
-      <c r="M17" s="101" t="n"/>
-      <c r="N17" s="101" t="n"/>
-      <c r="O17" s="101" t="n"/>
-      <c r="P17" s="101" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="21" spans="1:17" thickBot="1">
+      <c r="B17" s="53" t="n"/>
+      <c r="C17" s="53" t="n"/>
+      <c r="D17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="F17" s="53" t="n"/>
+      <c r="G17" s="53" t="n"/>
+      <c r="H17" s="53" t="n"/>
+      <c r="I17" s="53" t="n"/>
+      <c r="J17" s="53" t="n"/>
+      <c r="K17" s="53" t="n"/>
+      <c r="L17" s="53" t="n"/>
+      <c r="M17" s="53" t="n"/>
+      <c r="N17" s="53" t="n"/>
+      <c r="O17" s="53" t="n"/>
+      <c r="P17" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="21" spans="1:17" thickBot="1">
       <c r="A18" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="58">
         <f>B14</f>
@@ -5599,571 +5532,571 @@
         <v/>
       </c>
       <c r="O18" s="60" t="n"/>
-      <c r="P18" s="105">
+      <c r="P18" s="61">
         <f>P3</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="109">
+        <v>59</v>
+      </c>
+      <c r="B19" s="51">
         <f>'Base Case'!B19</f>
         <v/>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="51">
         <f>'Base Case'!C19</f>
         <v/>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="51">
         <f>'Base Case'!D19</f>
         <v/>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="51">
         <f>'Base Case'!E19</f>
         <v/>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="51">
         <f>'Base Case'!F19</f>
         <v/>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="52">
         <f>'Base Case'!G19</f>
         <v/>
       </c>
-      <c r="H19" s="101" t="n"/>
-      <c r="I19" s="101" t="n"/>
-      <c r="J19" s="101" t="n"/>
-      <c r="K19" s="101" t="n"/>
-      <c r="L19" s="102" t="n"/>
-      <c r="M19" s="101" t="n"/>
-      <c r="N19" s="109">
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="53" t="n"/>
+      <c r="J19" s="53" t="n"/>
+      <c r="K19" s="53" t="n"/>
+      <c r="L19" s="54" t="n"/>
+      <c r="M19" s="53" t="n"/>
+      <c r="N19" s="51">
         <f>G19</f>
         <v/>
       </c>
-      <c r="O19" s="101" t="n"/>
-      <c r="P19" s="101">
+      <c r="O19" s="53" t="n"/>
+      <c r="P19" s="53">
         <f>IF($G$3="NA",F19,F19+N19-O19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="109">
+        <v>60</v>
+      </c>
+      <c r="B20" s="51">
         <f>'Base Case'!B20</f>
         <v/>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="51">
         <f>'Base Case'!C20</f>
         <v/>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="51">
         <f>'Base Case'!D20</f>
         <v/>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="51">
         <f>'Base Case'!E20</f>
         <v/>
       </c>
-      <c r="F20" s="109">
+      <c r="F20" s="51">
         <f>'Base Case'!F20</f>
         <v/>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="52">
         <f>'Base Case'!G20</f>
         <v/>
       </c>
-      <c r="H20" s="101" t="n"/>
-      <c r="I20" s="101" t="n"/>
-      <c r="J20" s="101" t="n"/>
-      <c r="K20" s="101" t="n"/>
-      <c r="L20" s="102" t="n"/>
-      <c r="M20" s="101" t="n"/>
-      <c r="N20" s="109">
+      <c r="H20" s="53" t="n"/>
+      <c r="I20" s="53" t="n"/>
+      <c r="J20" s="53" t="n"/>
+      <c r="K20" s="53" t="n"/>
+      <c r="L20" s="54" t="n"/>
+      <c r="M20" s="53" t="n"/>
+      <c r="N20" s="51">
         <f>G20</f>
         <v/>
       </c>
-      <c r="O20" s="101" t="n"/>
-      <c r="P20" s="101">
+      <c r="O20" s="53" t="n"/>
+      <c r="P20" s="53">
         <f>IF($G$3="NA",F20,F20+N20-O20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="109">
+        <v>61</v>
+      </c>
+      <c r="B21" s="51">
         <f>'Base Case'!B21</f>
         <v/>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="51">
         <f>'Base Case'!C21</f>
         <v/>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="51">
         <f>'Base Case'!D21</f>
         <v/>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="51">
         <f>'Base Case'!E21</f>
         <v/>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="51">
         <f>'Base Case'!F21</f>
         <v/>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="52">
         <f>'Base Case'!G21</f>
         <v/>
       </c>
-      <c r="H21" s="101" t="n"/>
-      <c r="I21" s="101" t="n"/>
-      <c r="J21" s="101" t="n"/>
-      <c r="K21" s="101" t="n"/>
-      <c r="L21" s="102" t="n"/>
-      <c r="M21" s="101" t="n"/>
-      <c r="N21" s="109">
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="53" t="n"/>
+      <c r="J21" s="53" t="n"/>
+      <c r="K21" s="53" t="n"/>
+      <c r="L21" s="54" t="n"/>
+      <c r="M21" s="53" t="n"/>
+      <c r="N21" s="51">
         <f>G21</f>
         <v/>
       </c>
-      <c r="O21" s="101" t="n"/>
-      <c r="P21" s="101">
+      <c r="O21" s="53" t="n"/>
+      <c r="P21" s="53">
         <f>IF($G$3="NA",F21,F21+N21-O21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="109">
+        <v>62</v>
+      </c>
+      <c r="B22" s="51">
         <f>'Base Case'!B22</f>
         <v/>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="51">
         <f>'Base Case'!C22</f>
         <v/>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="51">
         <f>'Base Case'!D22</f>
         <v/>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="51">
         <f>'Base Case'!E22</f>
         <v/>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="51">
         <f>'Base Case'!F22</f>
         <v/>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="52">
         <f>'Base Case'!G22</f>
         <v/>
       </c>
-      <c r="H22" s="101" t="n"/>
-      <c r="I22" s="101" t="n"/>
-      <c r="J22" s="101" t="n"/>
-      <c r="K22" s="101" t="n"/>
-      <c r="L22" s="102" t="n"/>
-      <c r="M22" s="101" t="n"/>
-      <c r="N22" s="109">
+      <c r="H22" s="53" t="n"/>
+      <c r="I22" s="53" t="n"/>
+      <c r="J22" s="53" t="n"/>
+      <c r="K22" s="53" t="n"/>
+      <c r="L22" s="54" t="n"/>
+      <c r="M22" s="53" t="n"/>
+      <c r="N22" s="51">
         <f>G22</f>
         <v/>
       </c>
-      <c r="O22" s="101" t="n"/>
-      <c r="P22" s="101">
+      <c r="O22" s="53" t="n"/>
+      <c r="P22" s="53">
         <f>IF($G$3="NA",F22,F22+N22-O22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="109">
+        <v>63</v>
+      </c>
+      <c r="B23" s="51">
         <f>'Base Case'!B23</f>
         <v/>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="51">
         <f>'Base Case'!C23</f>
         <v/>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="51">
         <f>'Base Case'!D23</f>
         <v/>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="51">
         <f>'Base Case'!E23</f>
         <v/>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="51">
         <f>'Base Case'!F23</f>
         <v/>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="52">
         <f>'Base Case'!G23</f>
         <v/>
       </c>
-      <c r="H23" s="101" t="n"/>
-      <c r="I23" s="101" t="n"/>
-      <c r="J23" s="101" t="n"/>
-      <c r="K23" s="101" t="n"/>
-      <c r="L23" s="102" t="n"/>
-      <c r="M23" s="101" t="n"/>
-      <c r="N23" s="109">
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="53" t="n"/>
+      <c r="J23" s="53" t="n"/>
+      <c r="K23" s="53" t="n"/>
+      <c r="L23" s="54" t="n"/>
+      <c r="M23" s="53" t="n"/>
+      <c r="N23" s="51">
         <f>G23</f>
         <v/>
       </c>
-      <c r="O23" s="101" t="n"/>
-      <c r="P23" s="101">
+      <c r="O23" s="53" t="n"/>
+      <c r="P23" s="53">
         <f>IF($G$3="NA",F23,F23+N23-O23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="109">
+        <v>64</v>
+      </c>
+      <c r="B24" s="51">
         <f>'Base Case'!B24</f>
         <v/>
       </c>
-      <c r="C24" s="109">
+      <c r="C24" s="51">
         <f>'Base Case'!C24</f>
         <v/>
       </c>
-      <c r="D24" s="109">
+      <c r="D24" s="51">
         <f>'Base Case'!D24</f>
         <v/>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="51">
         <f>'Base Case'!E24</f>
         <v/>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="51">
         <f>'Base Case'!F24</f>
         <v/>
       </c>
-      <c r="G24" s="110">
+      <c r="G24" s="52">
         <f>'Base Case'!G24</f>
         <v/>
       </c>
-      <c r="H24" s="101" t="n"/>
-      <c r="I24" s="101" t="n"/>
-      <c r="J24" s="101" t="n"/>
-      <c r="K24" s="101" t="n"/>
-      <c r="L24" s="102" t="n"/>
-      <c r="M24" s="101" t="n"/>
-      <c r="N24" s="109">
+      <c r="H24" s="53" t="n"/>
+      <c r="I24" s="53" t="n"/>
+      <c r="J24" s="53" t="n"/>
+      <c r="K24" s="53" t="n"/>
+      <c r="L24" s="54" t="n"/>
+      <c r="M24" s="53" t="n"/>
+      <c r="N24" s="51">
         <f>G24</f>
         <v/>
       </c>
-      <c r="O24" s="101" t="n"/>
-      <c r="P24" s="101">
+      <c r="O24" s="53" t="n"/>
+      <c r="P24" s="53">
         <f>IF($G$3="NA",F24,F24+N24-O24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="109">
+        <v>65</v>
+      </c>
+      <c r="B25" s="51">
         <f>'Base Case'!B25</f>
         <v/>
       </c>
-      <c r="C25" s="109">
+      <c r="C25" s="51">
         <f>'Base Case'!C25</f>
         <v/>
       </c>
-      <c r="D25" s="109">
+      <c r="D25" s="51">
         <f>'Base Case'!D25</f>
         <v/>
       </c>
-      <c r="E25" s="109">
+      <c r="E25" s="51">
         <f>'Base Case'!E25</f>
         <v/>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="51">
         <f>'Base Case'!F25</f>
         <v/>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="52">
         <f>'Base Case'!G25</f>
         <v/>
       </c>
-      <c r="H25" s="101" t="n"/>
-      <c r="I25" s="101" t="n"/>
-      <c r="J25" s="101" t="n"/>
-      <c r="K25" s="101" t="n"/>
-      <c r="L25" s="102" t="n"/>
-      <c r="M25" s="101" t="n"/>
-      <c r="N25" s="109" t="n"/>
-      <c r="O25" s="101" t="n"/>
-      <c r="P25" s="101">
+      <c r="H25" s="53" t="n"/>
+      <c r="I25" s="53" t="n"/>
+      <c r="J25" s="53" t="n"/>
+      <c r="K25" s="53" t="n"/>
+      <c r="L25" s="54" t="n"/>
+      <c r="M25" s="53" t="n"/>
+      <c r="N25" s="51" t="n"/>
+      <c r="O25" s="53" t="n"/>
+      <c r="P25" s="53">
         <f>IF($G$3="NA",F25,F25+N25-O25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="109">
+        <v>66</v>
+      </c>
+      <c r="B26" s="51">
         <f>'Base Case'!B26</f>
         <v/>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="51">
         <f>'Base Case'!C26</f>
         <v/>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="51">
         <f>'Base Case'!D26</f>
         <v/>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="51">
         <f>'Base Case'!E26</f>
         <v/>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="51">
         <f>'Base Case'!F26</f>
         <v/>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="52">
         <f>'Base Case'!G26</f>
         <v/>
       </c>
-      <c r="H26" s="101" t="n"/>
-      <c r="I26" s="101" t="n"/>
-      <c r="J26" s="101" t="n"/>
-      <c r="K26" s="101" t="n"/>
-      <c r="L26" s="102" t="n"/>
-      <c r="M26" s="101" t="n"/>
-      <c r="N26" s="109">
+      <c r="H26" s="53" t="n"/>
+      <c r="I26" s="53" t="n"/>
+      <c r="J26" s="53" t="n"/>
+      <c r="K26" s="53" t="n"/>
+      <c r="L26" s="54" t="n"/>
+      <c r="M26" s="53" t="n"/>
+      <c r="N26" s="51">
         <f>G26</f>
         <v/>
       </c>
-      <c r="O26" s="101" t="n"/>
-      <c r="P26" s="101">
+      <c r="O26" s="53" t="n"/>
+      <c r="P26" s="53">
         <f>IF($G$3="NA",F26,F26+N26-O26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="109">
+        <v>67</v>
+      </c>
+      <c r="B27" s="51">
         <f>'Base Case'!B27</f>
         <v/>
       </c>
-      <c r="C27" s="109">
+      <c r="C27" s="51">
         <f>'Base Case'!C27</f>
         <v/>
       </c>
-      <c r="D27" s="109">
+      <c r="D27" s="51">
         <f>'Base Case'!D27</f>
         <v/>
       </c>
-      <c r="E27" s="109">
+      <c r="E27" s="51">
         <f>'Base Case'!E27</f>
         <v/>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="51">
         <f>'Base Case'!F27</f>
         <v/>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="52">
         <f>'Base Case'!G27</f>
         <v/>
       </c>
-      <c r="H27" s="101" t="n"/>
-      <c r="I27" s="101" t="n"/>
-      <c r="J27" s="101" t="n"/>
-      <c r="K27" s="101" t="n"/>
-      <c r="L27" s="102" t="n"/>
-      <c r="M27" s="101" t="n"/>
-      <c r="N27" s="109">
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="53" t="n"/>
+      <c r="J27" s="53" t="n"/>
+      <c r="K27" s="53" t="n"/>
+      <c r="L27" s="54" t="n"/>
+      <c r="M27" s="53" t="n"/>
+      <c r="N27" s="51">
         <f>G27</f>
         <v/>
       </c>
-      <c r="O27" s="101" t="n"/>
-      <c r="P27" s="101">
+      <c r="O27" s="53" t="n"/>
+      <c r="P27" s="53">
         <f>IF($G$3="NA",F27,F27+N27-O27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="101">
+        <v>68</v>
+      </c>
+      <c r="B28" s="53">
         <f>B22-B26-B27</f>
         <v/>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="53">
         <f>C22-C26-C27</f>
         <v/>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="53">
         <f>D22-D26-D27</f>
         <v/>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="53">
         <f>E22-E26-E27</f>
         <v/>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="53">
         <f>F22-F26-F27</f>
         <v/>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="54">
         <f>G22-G26-G27</f>
         <v/>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="53">
         <f>H22-H26-H27</f>
         <v/>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="53">
         <f>I22-I26-I27</f>
         <v/>
       </c>
-      <c r="J28" s="101">
+      <c r="J28" s="53">
         <f>J22-J26-J27</f>
         <v/>
       </c>
-      <c r="K28" s="101">
+      <c r="K28" s="53">
         <f>K22-K26-K27</f>
         <v/>
       </c>
-      <c r="L28" s="102">
+      <c r="L28" s="54">
         <f>L22-L26-L27</f>
         <v/>
       </c>
-      <c r="M28" s="101" t="n"/>
-      <c r="N28" s="101">
+      <c r="M28" s="53" t="n"/>
+      <c r="N28" s="53">
         <f>N22-N26-N27</f>
         <v/>
       </c>
-      <c r="O28" s="101" t="n"/>
-      <c r="P28" s="101">
+      <c r="O28" s="53" t="n"/>
+      <c r="P28" s="53">
         <f>IF($G$3="NA",F28,F28+N28-O28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="103">
+        <v>69</v>
+      </c>
+      <c r="B29" s="55">
         <f>B21-B24-B20+B23</f>
         <v/>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="55">
         <f>C21-C24-C20+C23</f>
         <v/>
       </c>
-      <c r="D29" s="103">
+      <c r="D29" s="55">
         <f>D21-D24-D20+D23</f>
         <v/>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="55">
         <f>E21-E24-E20+E23</f>
         <v/>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="55">
         <f>F21-F24-F20+F23</f>
         <v/>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="56">
         <f>G21-G24-G20+G23</f>
         <v/>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="55">
         <f>H4*Assumptions!B43</f>
         <v/>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="55">
         <f>I4*Assumptions!C43</f>
         <v/>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="55">
         <f>J4*Assumptions!D43</f>
         <v/>
       </c>
-      <c r="K29" s="103">
+      <c r="K29" s="55">
         <f>K4*Assumptions!E43</f>
         <v/>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="56">
         <f>L4*Assumptions!F43</f>
         <v/>
       </c>
-      <c r="M29" s="103" t="n"/>
-      <c r="N29" s="103">
+      <c r="M29" s="55" t="n"/>
+      <c r="N29" s="55">
         <f>N21-N24-N20+N23</f>
         <v/>
       </c>
-      <c r="O29" s="103" t="n"/>
-      <c r="P29" s="103">
+      <c r="O29" s="55" t="n"/>
+      <c r="P29" s="55">
         <f>IF($G$3="NA",F29,F29+N29-O29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="107">
+        <v>70</v>
+      </c>
+      <c r="B30" s="62">
         <f>'Base Case'!B30</f>
         <v/>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="62">
         <f>C29-B29</f>
         <v/>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="62">
         <f>D29-C29</f>
         <v/>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="62">
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="62">
         <f>F29-E29</f>
         <v/>
       </c>
       <c r="G30" s="63" t="n"/>
-      <c r="H30" s="107">
+      <c r="H30" s="62">
         <f>H29-F29</f>
         <v/>
       </c>
-      <c r="I30" s="107">
+      <c r="I30" s="62">
         <f>I29-H29</f>
         <v/>
       </c>
-      <c r="J30" s="107">
+      <c r="J30" s="62">
         <f>J29-I29</f>
         <v/>
       </c>
-      <c r="K30" s="107">
+      <c r="K30" s="62">
         <f>K29-J29</f>
         <v/>
       </c>
-      <c r="L30" s="108">
+      <c r="L30" s="64">
         <f>L29-K29</f>
         <v/>
       </c>
       <c r="M30" s="65" t="n"/>
       <c r="N30" s="65" t="n"/>
       <c r="O30" s="65" t="n"/>
-      <c r="P30" s="103">
+      <c r="P30" s="55">
         <f>IF($G$3="NA",F30,F30+N30-O30)</f>
         <v/>
       </c>
@@ -6219,7 +6152,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -6231,29 +6163,29 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="28.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="21" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="28.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="21" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <f>Assumptions!$F$12</f>
@@ -6262,7 +6194,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="28">
         <f>Assumptions!$F$17</f>
@@ -6271,7 +6203,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
         <f>Assumptions!$F$13</f>
@@ -6280,7 +6212,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6">
         <f>B4+(B6*(B5-B4))</f>
@@ -6289,12 +6221,12 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <f>Assumptions!$F$14</f>
@@ -6303,7 +6235,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6">
         <f>Assumptions!$F$15</f>
@@ -6312,7 +6244,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6">
         <f>MAX(B10:B11)</f>
@@ -6321,7 +6253,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7">
         <f>Assumptions!$G$6</f>
@@ -6330,52 +6262,52 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="109">
+        <v>77</v>
+      </c>
+      <c r="B16" s="51">
         <f>Assumptions!$B$12</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="112">
+        <v>78</v>
+      </c>
+      <c r="B17" s="10">
         <f>Assumptions!$B$13</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="109">
+        <v>79</v>
+      </c>
+      <c r="B18" s="51">
         <f>B16*B17</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="109">
+        <v>60</v>
+      </c>
+      <c r="B19" s="51">
         <f>IF(ISBLANK('Base Case'!G20),'Base Case'!F20,'Base Case'!G20)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="109">
+        <v>80</v>
+      </c>
+      <c r="B20" s="51">
         <f>IF(ISBLANK('Base Case'!G25),'Base Case'!F25,'Base Case'!G25)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6">
         <f>IF(ISERROR(B7*(B18/(B20+B18))+B12*(B20/(B18+B20))*(1-B13)),0,B7*(B18/(B20+B18))+B12*(B20/(B18+B20))*(1-B13))</f>
@@ -6396,29 +6328,29 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="35.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="2" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="8" style="21" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="21" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="21" width="15.140625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="35.83203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="2" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="12" min="8" style="21" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="21" width="15.33203125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="21" width="15.1640625"/>
     <col bestFit="1" customWidth="1" max="16" min="16" style="21" width="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:16" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:16" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" s="58">
         <f>'Base Case'!B3</f>
@@ -6465,257 +6397,257 @@
         <v/>
       </c>
       <c r="M3" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N3" s="26" t="n"/>
       <c r="O3" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="101">
+        <v>50</v>
+      </c>
+      <c r="B4" s="53">
         <f>'Base Case'!B$8</f>
         <v/>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="53">
         <f>'Base Case'!C$8</f>
         <v/>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="53">
         <f>'Base Case'!D$8</f>
         <v/>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="53">
         <f>'Base Case'!E$8</f>
         <v/>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="53">
         <f>'Base Case'!F$8</f>
         <v/>
       </c>
-      <c r="G4" s="101">
+      <c r="G4" s="53">
         <f>'Base Case'!G$8</f>
         <v/>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="53">
         <f>'Base Case'!H$8</f>
         <v/>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="53">
         <f>'Base Case'!I$8</f>
         <v/>
       </c>
-      <c r="J4" s="101">
+      <c r="J4" s="53">
         <f>'Base Case'!J$8</f>
         <v/>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="53">
         <f>'Base Case'!K$8</f>
         <v/>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="53">
         <f>'Base Case'!L$8</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="101">
+        <v>87</v>
+      </c>
+      <c r="B5" s="53">
         <f>-'Base Case'!B$10</f>
         <v/>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="53">
         <f>-'Base Case'!C$10</f>
         <v/>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="53">
         <f>-'Base Case'!D$10</f>
         <v/>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="53">
         <f>-'Base Case'!E$10</f>
         <v/>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="53">
         <f>-'Base Case'!F$10</f>
         <v/>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="53">
         <f>-'Base Case'!G$10</f>
         <v/>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="53">
         <f>IF(ISERROR(-'Base Case'!H$10),0,-'Base Case'!H$10)</f>
         <v/>
       </c>
-      <c r="I5" s="101">
+      <c r="I5" s="53">
         <f>IF(ISERROR(-'Base Case'!I$10),0,-'Base Case'!I$10)</f>
         <v/>
       </c>
-      <c r="J5" s="101">
+      <c r="J5" s="53">
         <f>IF(ISERROR(-'Base Case'!J$10),0,-'Base Case'!J$10)</f>
         <v/>
       </c>
-      <c r="K5" s="101">
+      <c r="K5" s="53">
         <f>IF(ISERROR(-'Base Case'!K$10),0,-'Base Case'!K$10)</f>
         <v/>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="53">
         <f>IF(ISERROR(-'Base Case'!L$10),0,-'Base Case'!L$10)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="101">
+        <v>57</v>
+      </c>
+      <c r="B6" s="53">
         <f>'Base Case'!B$16</f>
         <v/>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="53">
         <f>'Base Case'!C$16</f>
         <v/>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="53">
         <f>'Base Case'!D$16</f>
         <v/>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="53">
         <f>'Base Case'!E$16</f>
         <v/>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="53">
         <f>'Base Case'!F$16</f>
         <v/>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="53">
         <f>'Base Case'!G$16</f>
         <v/>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="53">
         <f>'Base Case'!H$16</f>
         <v/>
       </c>
-      <c r="I6" s="101">
+      <c r="I6" s="53">
         <f>'Base Case'!I$16</f>
         <v/>
       </c>
-      <c r="J6" s="101">
+      <c r="J6" s="53">
         <f>'Base Case'!J$16</f>
         <v/>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="53">
         <f>'Base Case'!K$16</f>
         <v/>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="53">
         <f>'Base Case'!L$16</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="101">
+        <v>88</v>
+      </c>
+      <c r="B7" s="53">
         <f>'Base Case'!B$30</f>
         <v/>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="53">
         <f>'Base Case'!C$30</f>
         <v/>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="53">
         <f>'Base Case'!D$30</f>
         <v/>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="53">
         <f>'Base Case'!E$30</f>
         <v/>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="53">
         <f>'Base Case'!F$30</f>
         <v/>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="53">
         <f>-'Base Case'!G$30</f>
         <v/>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="53">
         <f>-'Base Case'!H$30</f>
         <v/>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="53">
         <f>-'Base Case'!I$30</f>
         <v/>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="53">
         <f>-'Base Case'!J$30</f>
         <v/>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="53">
         <f>-'Base Case'!K$30</f>
         <v/>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="53">
         <f>-'Base Case'!L$30</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8" s="21" spans="1:16" thickBot="1">
+    <row customHeight="1" ht="15" r="8" s="21" spans="1:16" thickBot="1">
       <c r="A8" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="113">
+        <v>56</v>
+      </c>
+      <c r="B8" s="35">
         <f>-'Base Case'!B$15</f>
         <v/>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="35">
         <f>-'Base Case'!C$15</f>
         <v/>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="35">
         <f>-'Base Case'!D$15</f>
         <v/>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="35">
         <f>-'Base Case'!E$15</f>
         <v/>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="35">
         <f>-'Base Case'!F$15</f>
         <v/>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="35">
         <f>-'Base Case'!G$15</f>
         <v/>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="35">
         <f>-'Base Case'!H$15</f>
         <v/>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="35">
         <f>-'Base Case'!I$15</f>
         <v/>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="35">
         <f>-'Base Case'!J$15</f>
         <v/>
       </c>
-      <c r="K8" s="113">
+      <c r="K8" s="35">
         <f>-'Base Case'!K$15</f>
         <v/>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="35">
         <f>-'Base Case'!L$15</f>
         <v/>
       </c>
@@ -6726,112 +6658,112 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="101">
+        <v>89</v>
+      </c>
+      <c r="B9" s="53">
         <f>SUM(B$4:B$8)</f>
         <v/>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="53">
         <f>SUM(C$4:C$8)</f>
         <v/>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="53">
         <f>SUM(D$4:D$8)</f>
         <v/>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="53">
         <f>SUM(E$4:E$8)</f>
         <v/>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="53">
         <f>SUM(F$4:F$8)</f>
         <v/>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="53">
         <f>SUM(G$4:G$8)</f>
         <v/>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="53">
         <f>SUM(H$4:H$8)-G$9</f>
         <v/>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="53">
         <f>SUM(I$4:I$8)</f>
         <v/>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="53">
         <f>SUM(J$4:J$8)</f>
         <v/>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="53">
         <f>SUM(K$4:K$8)</f>
         <v/>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="53">
         <f>SUM(L$4:L$8)</f>
         <v/>
       </c>
-      <c r="M9" s="114">
+      <c r="M9" s="11">
         <f>SUM(H9:L9)</f>
         <v/>
       </c>
-      <c r="O9" s="115">
+      <c r="O9" s="37">
         <f>((L9*(1+Assumptions!$B$26))/('WACC Calculations'!$B$22-Assumptions!$B$26))</f>
         <v/>
       </c>
-      <c r="P9" s="114">
+      <c r="P9" s="11">
         <f>O9+M9</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="116" t="n"/>
-      <c r="C10" s="116" t="n"/>
-      <c r="D10" s="116" t="n"/>
-      <c r="E10" s="116" t="n"/>
-      <c r="F10" s="116" t="n"/>
-      <c r="G10" s="116" t="n"/>
-      <c r="H10" s="117">
+        <v>90</v>
+      </c>
+      <c r="B10" s="32" t="n"/>
+      <c r="C10" s="32" t="n"/>
+      <c r="D10" s="32" t="n"/>
+      <c r="E10" s="32" t="n"/>
+      <c r="F10" s="32" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="33">
         <f>H9/(1+'WACC Calculations'!$B$22)^1</f>
         <v/>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="33">
         <f>I9/(1+'WACC Calculations'!$B$22)^2</f>
         <v/>
       </c>
-      <c r="J10" s="117">
+      <c r="J10" s="33">
         <f>J9/(1+'WACC Calculations'!$B$22)^3</f>
         <v/>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="33">
         <f>K9/(1+'WACC Calculations'!$B$22)^4</f>
         <v/>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="33">
         <f>L9/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="M10" s="117">
+      <c r="M10" s="33">
         <f>SUM(H10:L10)</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n"/>
-      <c r="O10" s="116">
+      <c r="O10" s="32">
         <f>((L9*(1+Assumptions!$B$26))/('WACC Calculations'!$B$22-Assumptions!$B$26))/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="P10" s="116">
+      <c r="P10" s="32">
         <f>M10+O10</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12" s="21" spans="1:16" thickBot="1">
+    <row customHeight="1" ht="15" r="12" s="21" spans="1:16" thickBot="1">
       <c r="A12" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B12" s="58">
         <f>B3</f>
@@ -6878,333 +6810,333 @@
         <v/>
       </c>
       <c r="M12" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="101">
+        <v>50</v>
+      </c>
+      <c r="B13" s="53">
         <f>'Base Case'!B$8</f>
         <v/>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="53">
         <f>'Base Case'!C$8</f>
         <v/>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="53">
         <f>'Base Case'!D$8</f>
         <v/>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="53">
         <f>'Base Case'!E$8</f>
         <v/>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="53">
         <f>'Base Case'!F$8</f>
         <v/>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="53">
         <f>'Base Case'!G$8</f>
         <v/>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="53">
         <f>'Upside Case'!H8</f>
         <v/>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="53">
         <f>'Upside Case'!I8</f>
         <v/>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="53">
         <f>'Upside Case'!J8</f>
         <v/>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="53">
         <f>'Upside Case'!K8</f>
         <v/>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="53">
         <f>'Upside Case'!L8</f>
         <v/>
       </c>
-      <c r="M13" s="109" t="n"/>
+      <c r="M13" s="51" t="n"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="101">
+        <v>87</v>
+      </c>
+      <c r="B14" s="53">
         <f>-'Base Case'!B$10</f>
         <v/>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="53">
         <f>-'Base Case'!C$10</f>
         <v/>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="53">
         <f>-'Base Case'!D$10</f>
         <v/>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="53">
         <f>-'Base Case'!E$10</f>
         <v/>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="53">
         <f>-'Base Case'!F$10</f>
         <v/>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="53">
         <f>-'Base Case'!G$10</f>
         <v/>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="53">
         <f>IF(ISERROR(-'Upside Case'!H10),0,-'Upside Case'!H10)</f>
         <v/>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="53">
         <f>IF(ISERROR(-'Upside Case'!I10),0,-'Upside Case'!I10)</f>
         <v/>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="53">
         <f>IF(ISERROR(-'Upside Case'!J10),0,-'Upside Case'!J10)</f>
         <v/>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="53">
         <f>IF(ISERROR(-'Upside Case'!K10),0,-'Upside Case'!K10)</f>
         <v/>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="53">
         <f>IF(ISERROR(-'Upside Case'!L10),0,-'Upside Case'!L10)</f>
         <v/>
       </c>
-      <c r="M14" s="109" t="n"/>
+      <c r="M14" s="51" t="n"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="101">
+        <v>57</v>
+      </c>
+      <c r="B15" s="53">
         <f>'Base Case'!B$16</f>
         <v/>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="53">
         <f>'Base Case'!C$16</f>
         <v/>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="53">
         <f>'Base Case'!D$16</f>
         <v/>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="53">
         <f>'Base Case'!E$16</f>
         <v/>
       </c>
-      <c r="F15" s="101">
+      <c r="F15" s="53">
         <f>'Base Case'!F$16</f>
         <v/>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="53">
         <f>'Base Case'!G$16</f>
         <v/>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="53">
         <f>'Upside Case'!H16</f>
         <v/>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="53">
         <f>'Upside Case'!I16</f>
         <v/>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="53">
         <f>'Upside Case'!J16</f>
         <v/>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="53">
         <f>'Upside Case'!K16</f>
         <v/>
       </c>
-      <c r="L15" s="101">
+      <c r="L15" s="53">
         <f>'Upside Case'!L16</f>
         <v/>
       </c>
-      <c r="M15" s="109" t="n"/>
+      <c r="M15" s="51" t="n"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="101">
+        <v>88</v>
+      </c>
+      <c r="B16" s="53">
         <f>'Base Case'!B$30</f>
         <v/>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="53">
         <f>'Base Case'!C$30</f>
         <v/>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="53">
         <f>'Base Case'!D$30</f>
         <v/>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="53">
         <f>'Base Case'!E$30</f>
         <v/>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="53">
         <f>'Base Case'!F$30</f>
         <v/>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="53">
         <f>-'Base Case'!G$30</f>
         <v/>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="53">
         <f>-'Upside Case'!H30</f>
         <v/>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="53">
         <f>-'Upside Case'!I30</f>
         <v/>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="53">
         <f>-'Upside Case'!J30</f>
         <v/>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="53">
         <f>-'Upside Case'!K30</f>
         <v/>
       </c>
-      <c r="L16" s="101">
+      <c r="L16" s="53">
         <f>-'Upside Case'!L30</f>
         <v/>
       </c>
-      <c r="M16" s="109" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="21" spans="1:16" thickBot="1">
+      <c r="M16" s="51" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="21" spans="1:16" thickBot="1">
       <c r="A17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="113">
+        <v>56</v>
+      </c>
+      <c r="B17" s="35">
         <f>-'Base Case'!B$15</f>
         <v/>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="35">
         <f>-'Base Case'!C$15</f>
         <v/>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="35">
         <f>-'Base Case'!D$15</f>
         <v/>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="35">
         <f>-'Base Case'!E$15</f>
         <v/>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="35">
         <f>-'Base Case'!F$15</f>
         <v/>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="35">
         <f>-'Base Case'!G$15</f>
         <v/>
       </c>
-      <c r="H17" s="113">
+      <c r="H17" s="35">
         <f>-'Upside Case'!H15</f>
         <v/>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="35">
         <f>-'Upside Case'!I15</f>
         <v/>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="35">
         <f>-'Upside Case'!J15</f>
         <v/>
       </c>
-      <c r="K17" s="113">
+      <c r="K17" s="35">
         <f>-'Upside Case'!K15</f>
         <v/>
       </c>
-      <c r="L17" s="113">
+      <c r="L17" s="35">
         <f>-'Upside Case'!L15</f>
         <v/>
       </c>
-      <c r="M17" s="118" t="n"/>
+      <c r="M17" s="67" t="n"/>
       <c r="N17" s="26" t="n"/>
       <c r="O17" s="26" t="n"/>
       <c r="P17" s="26" t="n"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="101">
+        <v>89</v>
+      </c>
+      <c r="B18" s="53">
         <f>SUM(B$4:B$8)</f>
         <v/>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="53">
         <f>SUM(C$4:C$8)</f>
         <v/>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="53">
         <f>SUM(D$4:D$8)</f>
         <v/>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="53">
         <f>SUM(E$4:E$8)</f>
         <v/>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="53">
         <f>SUM(F$4:F$8)</f>
         <v/>
       </c>
-      <c r="G18" s="101">
+      <c r="G18" s="53">
         <f>SUM(G$4:G$8)</f>
         <v/>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="53">
         <f>SUM(H$13:H$17)-G$18</f>
         <v/>
       </c>
-      <c r="I18" s="101">
+      <c r="I18" s="53">
         <f>SUM(I$13:I$17)</f>
         <v/>
       </c>
-      <c r="J18" s="101">
+      <c r="J18" s="53">
         <f>SUM(J$13:J$17)</f>
         <v/>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="53">
         <f>SUM(K$13:K$17)</f>
         <v/>
       </c>
-      <c r="L18" s="101">
+      <c r="L18" s="53">
         <f>SUM(L$13:L$17)</f>
         <v/>
       </c>
-      <c r="M18" s="101">
+      <c r="M18" s="53">
         <f>SUM(H18:L18)</f>
         <v/>
       </c>
-      <c r="O18" s="109">
+      <c r="O18" s="51">
         <f>((L18*(1+Assumptions!$B$35))/('WACC Calculations'!$B$22-Assumptions!$B$35))</f>
         <v/>
       </c>
-      <c r="P18" s="109">
+      <c r="P18" s="51">
         <f>O18+M18</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -7212,43 +7144,43 @@
       <c r="E19" s="22" t="n"/>
       <c r="F19" s="22" t="n"/>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="117">
+      <c r="H19" s="33">
         <f>H18/(1+'WACC Calculations'!$B$22)^1</f>
         <v/>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="33">
         <f>I18/(1+'WACC Calculations'!$B$22)^2</f>
         <v/>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="33">
         <f>J18/(1+'WACC Calculations'!$B$22)^3</f>
         <v/>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="33">
         <f>K18/(1+'WACC Calculations'!$B$22)^4</f>
         <v/>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="33">
         <f>L18/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="M19" s="117">
+      <c r="M19" s="33">
         <f>SUM(H19:L19)</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n"/>
-      <c r="O19" s="116">
+      <c r="O19" s="32">
         <f>((L18*(1+Assumptions!$B$35))/('WACC Calculations'!$B$22-Assumptions!$B$35))/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="P19" s="116">
+      <c r="P19" s="32">
         <f>M19+O19</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="21" s="21" spans="1:16" thickBot="1">
+    <row customHeight="1" ht="15" r="21" s="21" spans="1:16" thickBot="1">
       <c r="A21" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B21" s="58">
         <f>B3</f>
@@ -7295,346 +7227,346 @@
         <v/>
       </c>
       <c r="M21" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N21" s="26" t="n"/>
       <c r="O21" s="58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="101">
+        <v>50</v>
+      </c>
+      <c r="B22" s="53">
         <f>'Base Case'!B$8</f>
         <v/>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="53">
         <f>'Base Case'!C$8</f>
         <v/>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="53">
         <f>'Base Case'!D$8</f>
         <v/>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="53">
         <f>'Base Case'!E$8</f>
         <v/>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="53">
         <f>'Base Case'!F$8</f>
         <v/>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="53">
         <f>'Base Case'!G$8</f>
         <v/>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="51">
         <f>'Downside Case'!H8</f>
         <v/>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="51">
         <f>'Downside Case'!I8</f>
         <v/>
       </c>
-      <c r="J22" s="109">
+      <c r="J22" s="51">
         <f>'Downside Case'!J8</f>
         <v/>
       </c>
-      <c r="K22" s="109">
+      <c r="K22" s="51">
         <f>'Downside Case'!K8</f>
         <v/>
       </c>
-      <c r="L22" s="109">
+      <c r="L22" s="51">
         <f>'Downside Case'!L8</f>
         <v/>
       </c>
-      <c r="M22" s="109" t="n"/>
-      <c r="N22" s="109" t="n"/>
-      <c r="O22" s="109" t="n"/>
-      <c r="P22" s="109" t="n"/>
+      <c r="M22" s="51" t="n"/>
+      <c r="N22" s="51" t="n"/>
+      <c r="O22" s="51" t="n"/>
+      <c r="P22" s="51" t="n"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="101">
+        <v>87</v>
+      </c>
+      <c r="B23" s="53">
         <f>-'Base Case'!B$10</f>
         <v/>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="53">
         <f>-'Base Case'!C$10</f>
         <v/>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="53">
         <f>-'Base Case'!D$10</f>
         <v/>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="53">
         <f>-'Base Case'!E$10</f>
         <v/>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="53">
         <f>-'Base Case'!F$10</f>
         <v/>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="53">
         <f>-'Base Case'!G$10</f>
         <v/>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="53">
         <f>IF(ISERROR(-'Downside Case'!H10),0,-'Downside Case'!H10)</f>
         <v/>
       </c>
-      <c r="I23" s="101">
+      <c r="I23" s="53">
         <f>IF(ISERROR(-'Downside Case'!I10),0,-'Downside Case'!I10)</f>
         <v/>
       </c>
-      <c r="J23" s="101">
+      <c r="J23" s="53">
         <f>IF(ISERROR(-'Downside Case'!J10),0,-'Downside Case'!J10)</f>
         <v/>
       </c>
-      <c r="K23" s="101">
+      <c r="K23" s="53">
         <f>IF(ISERROR(-'Downside Case'!K10),0,-'Downside Case'!K10)</f>
         <v/>
       </c>
-      <c r="L23" s="101">
+      <c r="L23" s="53">
         <f>IF(ISERROR(-'Downside Case'!L10),0,-'Downside Case'!L10)</f>
         <v/>
       </c>
-      <c r="M23" s="109" t="n"/>
-      <c r="N23" s="109" t="n"/>
-      <c r="O23" s="109" t="n"/>
-      <c r="P23" s="109" t="n"/>
+      <c r="M23" s="51" t="n"/>
+      <c r="N23" s="51" t="n"/>
+      <c r="O23" s="51" t="n"/>
+      <c r="P23" s="51" t="n"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="101">
+        <v>57</v>
+      </c>
+      <c r="B24" s="53">
         <f>'Base Case'!B$16</f>
         <v/>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="53">
         <f>'Base Case'!C$16</f>
         <v/>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="53">
         <f>'Base Case'!D$16</f>
         <v/>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="53">
         <f>'Base Case'!E$16</f>
         <v/>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="53">
         <f>'Base Case'!F$16</f>
         <v/>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="53">
         <f>'Base Case'!G$16</f>
         <v/>
       </c>
-      <c r="H24" s="109">
+      <c r="H24" s="51">
         <f>'Downside Case'!H16</f>
         <v/>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="51">
         <f>'Downside Case'!I16</f>
         <v/>
       </c>
-      <c r="J24" s="109">
+      <c r="J24" s="51">
         <f>'Downside Case'!J16</f>
         <v/>
       </c>
-      <c r="K24" s="109">
+      <c r="K24" s="51">
         <f>'Downside Case'!K16</f>
         <v/>
       </c>
-      <c r="L24" s="109">
+      <c r="L24" s="51">
         <f>'Downside Case'!L16</f>
         <v/>
       </c>
-      <c r="M24" s="109" t="n"/>
-      <c r="N24" s="109" t="n"/>
-      <c r="O24" s="109" t="n"/>
-      <c r="P24" s="109" t="n"/>
+      <c r="M24" s="51" t="n"/>
+      <c r="N24" s="51" t="n"/>
+      <c r="O24" s="51" t="n"/>
+      <c r="P24" s="51" t="n"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="101">
+        <v>88</v>
+      </c>
+      <c r="B25" s="53">
         <f>'Base Case'!B$30</f>
         <v/>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="53">
         <f>'Base Case'!C$30</f>
         <v/>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="53">
         <f>'Base Case'!D$30</f>
         <v/>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="53">
         <f>'Base Case'!E$30</f>
         <v/>
       </c>
-      <c r="F25" s="101">
+      <c r="F25" s="53">
         <f>'Base Case'!F$30</f>
         <v/>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="53">
         <f>-'Base Case'!G$30</f>
         <v/>
       </c>
-      <c r="H25" s="109">
+      <c r="H25" s="51">
         <f>-'Downside Case'!H30</f>
         <v/>
       </c>
-      <c r="I25" s="109">
+      <c r="I25" s="51">
         <f>-'Downside Case'!I30</f>
         <v/>
       </c>
-      <c r="J25" s="109">
+      <c r="J25" s="51">
         <f>-'Downside Case'!J30</f>
         <v/>
       </c>
-      <c r="K25" s="109">
+      <c r="K25" s="51">
         <f>-'Downside Case'!K30</f>
         <v/>
       </c>
-      <c r="L25" s="109">
+      <c r="L25" s="51">
         <f>-'Downside Case'!L30</f>
         <v/>
       </c>
-      <c r="M25" s="109" t="n"/>
-      <c r="N25" s="109" t="n"/>
-      <c r="O25" s="109" t="n"/>
-      <c r="P25" s="109" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" s="21" spans="1:16" thickBot="1">
+      <c r="M25" s="51" t="n"/>
+      <c r="N25" s="51" t="n"/>
+      <c r="O25" s="51" t="n"/>
+      <c r="P25" s="51" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="21" spans="1:16" thickBot="1">
       <c r="A26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="113">
+        <v>56</v>
+      </c>
+      <c r="B26" s="35">
         <f>-'Base Case'!B$15</f>
         <v/>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="35">
         <f>-'Base Case'!C$15</f>
         <v/>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="35">
         <f>-'Base Case'!D$15</f>
         <v/>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="35">
         <f>-'Base Case'!E$15</f>
         <v/>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="35">
         <f>-'Base Case'!F$15</f>
         <v/>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="35">
         <f>-'Base Case'!G$15</f>
         <v/>
       </c>
-      <c r="H26" s="118">
+      <c r="H26" s="67">
         <f>-'Downside Case'!H15</f>
         <v/>
       </c>
-      <c r="I26" s="118">
+      <c r="I26" s="67">
         <f>-'Downside Case'!I15</f>
         <v/>
       </c>
-      <c r="J26" s="118">
+      <c r="J26" s="67">
         <f>-'Downside Case'!J15</f>
         <v/>
       </c>
-      <c r="K26" s="118">
+      <c r="K26" s="67">
         <f>-'Downside Case'!K15</f>
         <v/>
       </c>
-      <c r="L26" s="118">
+      <c r="L26" s="67">
         <f>-'Downside Case'!L15</f>
         <v/>
       </c>
-      <c r="M26" s="118" t="n"/>
-      <c r="N26" s="118" t="n"/>
-      <c r="O26" s="118" t="n"/>
-      <c r="P26" s="118" t="n"/>
+      <c r="M26" s="67" t="n"/>
+      <c r="N26" s="67" t="n"/>
+      <c r="O26" s="67" t="n"/>
+      <c r="P26" s="67" t="n"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="101">
+        <v>89</v>
+      </c>
+      <c r="B27" s="53">
         <f>SUM(B$4:B$8)</f>
         <v/>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="53">
         <f>SUM(C$4:C$8)</f>
         <v/>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="53">
         <f>SUM(D$4:D$8)</f>
         <v/>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="53">
         <f>SUM(E$4:E$8)</f>
         <v/>
       </c>
-      <c r="F27" s="101">
+      <c r="F27" s="53">
         <f>SUM(F$4:F$8)</f>
         <v/>
       </c>
-      <c r="G27" s="101">
+      <c r="G27" s="53">
         <f>SUM(G$4:G$8)</f>
         <v/>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="53">
         <f>SUM(H$22:H$26)-G$27</f>
         <v/>
       </c>
-      <c r="I27" s="101">
+      <c r="I27" s="53">
         <f>SUM(I$22:I$26)</f>
         <v/>
       </c>
-      <c r="J27" s="101">
+      <c r="J27" s="53">
         <f>SUM(J$22:J$26)</f>
         <v/>
       </c>
-      <c r="K27" s="101">
+      <c r="K27" s="53">
         <f>SUM(K$22:K$26)</f>
         <v/>
       </c>
-      <c r="L27" s="101">
+      <c r="L27" s="53">
         <f>SUM(L$22:L$26)</f>
         <v/>
       </c>
-      <c r="M27" s="101">
+      <c r="M27" s="53">
         <f>SUM(H27:L27)</f>
         <v/>
       </c>
-      <c r="N27" s="109" t="n"/>
-      <c r="O27" s="109">
+      <c r="N27" s="51" t="n"/>
+      <c r="O27" s="51">
         <f>((L27*(1+Assumptions!$B$44))/('WACC Calculations'!$B$22-Assumptions!$B$44))</f>
         <v/>
       </c>
-      <c r="P27" s="109">
+      <c r="P27" s="51">
         <f>O27+M27</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B28" s="22" t="n"/>
       <c r="C28" s="22" t="n"/>
@@ -7642,36 +7574,36 @@
       <c r="E28" s="22" t="n"/>
       <c r="F28" s="22" t="n"/>
       <c r="G28" s="22" t="n"/>
-      <c r="H28" s="117">
+      <c r="H28" s="33">
         <f>H27/(1+'WACC Calculations'!$B$22)^1</f>
         <v/>
       </c>
-      <c r="I28" s="117">
+      <c r="I28" s="33">
         <f>I27/(1+'WACC Calculations'!$B$22)^2</f>
         <v/>
       </c>
-      <c r="J28" s="117">
+      <c r="J28" s="33">
         <f>J27/(1+'WACC Calculations'!$B$22)^3</f>
         <v/>
       </c>
-      <c r="K28" s="117">
+      <c r="K28" s="33">
         <f>K27/(1+'WACC Calculations'!$B$22)^4</f>
         <v/>
       </c>
-      <c r="L28" s="117">
+      <c r="L28" s="33">
         <f>L27/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="M28" s="117">
+      <c r="M28" s="33">
         <f>SUM(H28:L28)</f>
         <v/>
       </c>
-      <c r="N28" s="116" t="n"/>
-      <c r="O28" s="116">
+      <c r="N28" s="32" t="n"/>
+      <c r="O28" s="32">
         <f>((L27*(1+Assumptions!$B$44))/('WACC Calculations'!$B$22-Assumptions!$B$44))/(1+'WACC Calculations'!$B$22)^5</f>
         <v/>
       </c>
-      <c r="P28" s="116">
+      <c r="P28" s="32">
         <f>M28+O28</f>
         <v/>
       </c>
@@ -7691,81 +7623,81 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="21" width="27"/>
-    <col customWidth="1" max="2" min="2" style="21" width="11.5703125"/>
+    <col customWidth="1" max="2" min="2" style="21" width="11.5"/>
     <col customWidth="1" max="4" min="4" style="21" width="11"/>
-    <col customWidth="1" max="6" min="6" style="21" width="11.5703125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="21" width="21.85546875"/>
-    <col customWidth="1" max="9" min="9" style="21" width="12.28515625"/>
+    <col customWidth="1" max="6" min="6" style="21" width="11.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="21" width="21.83203125"/>
+    <col customWidth="1" max="9" min="9" style="21" width="12.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="21" spans="1:9" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="21" spans="1:9" thickBot="1">
       <c r="A3" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="26" t="n"/>
       <c r="D3" s="58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="26" t="n"/>
       <c r="F3" s="58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="22" t="n"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="119">
+        <v>98</v>
+      </c>
+      <c r="B4" s="69">
         <f>Assumptions!$F$16</f>
         <v/>
       </c>
       <c r="C4" s="70" t="n"/>
-      <c r="D4" s="119">
+      <c r="D4" s="69">
         <f>B4</f>
         <v/>
       </c>
       <c r="E4" s="70" t="n"/>
-      <c r="F4" s="119">
+      <c r="F4" s="69">
         <f>D4</f>
         <v/>
       </c>
-      <c r="I4" s="120" t="n"/>
+      <c r="I4" s="77" t="n"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="119">
+        <v>99</v>
+      </c>
+      <c r="B5" s="69">
         <f>'Cash Flow Calculations'!$P$10</f>
         <v/>
       </c>
       <c r="C5" s="70" t="n"/>
-      <c r="D5" s="119">
+      <c r="D5" s="69">
         <f>'Cash Flow Calculations'!$P$19</f>
         <v/>
       </c>
       <c r="E5" s="70" t="n"/>
-      <c r="F5" s="119">
+      <c r="F5" s="69">
         <f>'Cash Flow Calculations'!$P$28</f>
         <v/>
       </c>
-      <c r="I5" s="120" t="n"/>
+      <c r="I5" s="77" t="n"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="27" t="n"/>
@@ -7774,67 +7706,67 @@
       <c r="D6" s="70" t="n"/>
       <c r="E6" s="70" t="n"/>
       <c r="F6" s="70" t="n"/>
-      <c r="I6" s="120" t="n"/>
+      <c r="I6" s="77" t="n"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="119">
+        <v>100</v>
+      </c>
+      <c r="B7" s="69">
         <f>'WACC Calculations'!$B$20</f>
         <v/>
       </c>
       <c r="C7" s="70" t="n"/>
-      <c r="D7" s="119">
+      <c r="D7" s="69">
         <f>B7</f>
         <v/>
       </c>
       <c r="E7" s="70" t="n"/>
-      <c r="F7" s="119">
+      <c r="F7" s="69">
         <f>B7</f>
         <v/>
       </c>
-      <c r="I7" s="120" t="n"/>
+      <c r="I7" s="77" t="n"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="119">
+        <v>101</v>
+      </c>
+      <c r="B8" s="69">
         <f>'WACC Calculations'!$B$19</f>
         <v/>
       </c>
       <c r="C8" s="70" t="n"/>
-      <c r="D8" s="119">
+      <c r="D8" s="69">
         <f>B8</f>
         <v/>
       </c>
       <c r="E8" s="70" t="n"/>
-      <c r="F8" s="119">
+      <c r="F8" s="69">
         <f>B8</f>
         <v/>
       </c>
-      <c r="I8" s="120" t="n"/>
+      <c r="I8" s="77" t="n"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="119">
+        <v>102</v>
+      </c>
+      <c r="B9" s="69">
         <f>B5-B7+B8</f>
         <v/>
       </c>
       <c r="C9" s="70" t="n"/>
-      <c r="D9" s="119">
+      <c r="D9" s="69">
         <f>D5-D7+D8</f>
         <v/>
       </c>
       <c r="E9" s="70" t="n"/>
-      <c r="F9" s="119">
+      <c r="F9" s="69">
         <f>F5-F7+F8</f>
         <v/>
       </c>
-      <c r="I9" s="120" t="n"/>
+      <c r="I9" s="77" t="n"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="27" t="n"/>
@@ -7846,26 +7778,26 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="121">
+        <v>103</v>
+      </c>
+      <c r="B11" s="73">
         <f>B9/B4</f>
         <v/>
       </c>
       <c r="C11" s="71" t="n"/>
-      <c r="D11" s="121">
+      <c r="D11" s="73">
         <f>D9/D4</f>
         <v/>
       </c>
       <c r="E11" s="71" t="n"/>
-      <c r="F11" s="121">
+      <c r="F11" s="73">
         <f>F9/F4</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="76" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B12" s="74">
         <f>B11/Assumptions!$B$13-1</f>
@@ -7881,18 +7813,18 @@
         <f>F11/Assumptions!$B$13-1</f>
         <v/>
       </c>
-      <c r="I12" s="120" t="n"/>
+      <c r="I12" s="77" t="n"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B13" s="90" t="n"/>
       <c r="C13" s="72" t="n"/>
       <c r="D13" s="90" t="n"/>
       <c r="E13" s="72" t="n"/>
       <c r="F13" s="90" t="n"/>
-      <c r="I13" s="120" t="n"/>
+      <c r="I13" s="77" t="n"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="76" t="n"/>
@@ -7901,20 +7833,20 @@
       <c r="D14" s="72" t="n"/>
       <c r="E14" s="72" t="n"/>
       <c r="F14" s="72" t="n"/>
-      <c r="I14" s="120" t="n"/>
+      <c r="I14" s="77" t="n"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="122">
+        <v>106</v>
+      </c>
+      <c r="B15" s="75">
         <f>(B13*B11)+(D13*D11)+(F13*F11)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6">
         <f>B15/Assumptions!$B$13-1</f>
@@ -7922,11 +7854,10 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="H18" s="112" t="n"/>
+      <c r="H18" s="10" t="n"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>